--- a/pandapower/test/shortcircuit/sce_tests/sc_result_comparison/wp_2.5/2_five_bus_radial_grid_dyn_gen_pf_sc_results_0_branch_ward34_inductance.xlsx
+++ b/pandapower/test/shortcircuit/sce_tests/sc_result_comparison/wp_2.5/2_five_bus_radial_grid_dyn_gen_pf_sc_results_0_branch_ward34_inductance.xlsx
@@ -994,40 +994,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-1.563194052506537E-14</v>
+        <v>-5.210646841688686E-15</v>
       </c>
       <c r="O2">
-        <v>1.042124982428609E-14</v>
+        <v>-3.386924832097026E-14</v>
       </c>
       <c r="P2">
-        <v>-4.453701581637349E-20</v>
+        <v>2.605318967505856E-14</v>
       </c>
       <c r="Q2">
-        <v>5.210646841688501E-15</v>
+        <v>-5.210646841687987E-15</v>
       </c>
       <c r="R2">
-        <v>2.605795522812271E-15</v>
+        <v>4.168564682832346E-14</v>
       </c>
       <c r="S2">
-        <v>4.727894349048249E-19</v>
+        <v>-4.168470195577977E-14</v>
       </c>
       <c r="T2">
-        <v>2.08425873667533E-14</v>
+        <v>2.60532342084418E-14</v>
       </c>
       <c r="U2">
-        <v>5.763410493837118E-09</v>
+        <v>5.763400072543439E-09</v>
       </c>
       <c r="V2">
-        <v>-5.763402682029841E-09</v>
+        <v>-5.763397471382986E-09</v>
       </c>
       <c r="W2">
-        <v>-1.042129368337668E-14</v>
+        <v>-3.126388105013029E-14</v>
       </c>
       <c r="X2">
-        <v>-5.763394861410699E-09</v>
+        <v>-5.763392256087281E-09</v>
       </c>
       <c r="Y2">
-        <v>5.763407893162584E-09</v>
+        <v>5.763392261222042E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -1051,34 +1051,34 @@
         <v>1.100000023808766</v>
       </c>
       <c r="AG2">
-        <v>0.5500000117057459</v>
+        <v>0.5500000117057461</v>
       </c>
       <c r="AH2">
-        <v>0.5500000121030184</v>
+        <v>0.5500000121030173</v>
       </c>
       <c r="AI2">
         <v>1.100000023808766</v>
       </c>
       <c r="AJ2">
-        <v>0.5500000116593765</v>
+        <v>0.5500000116593771</v>
       </c>
       <c r="AK2">
-        <v>0.5500000121493875</v>
+        <v>0.5500000121493862</v>
       </c>
       <c r="AL2">
-        <v>6.92343595716384E-13</v>
+        <v>6.912154852316506E-13</v>
       </c>
       <c r="AM2">
-        <v>-179.9999999995567</v>
+        <v>-179.9999999995566</v>
       </c>
       <c r="AN2">
         <v>179.9999999995499</v>
       </c>
       <c r="AO2">
-        <v>7.082758124159204E-13</v>
+        <v>7.06028871780549E-13</v>
       </c>
       <c r="AP2">
-        <v>-179.9999999952994</v>
+        <v>-179.9999999952993</v>
       </c>
       <c r="AQ2">
         <v>179.9999999952925</v>
@@ -1125,40 +1125,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.04212936833772E-14</v>
+        <v>3.270476197627079E-28</v>
       </c>
       <c r="O3">
-        <v>2.049494803798653E-19</v>
+        <v>1.823746889024328E-14</v>
       </c>
       <c r="P3">
-        <v>4.168537993086173E-14</v>
+        <v>-5.210441662107425E-15</v>
       </c>
       <c r="Q3">
-        <v>-1.56319405250657E-14</v>
+        <v>-1.042129368337694E-14</v>
       </c>
       <c r="R3">
-        <v>1.302645973070846E-14</v>
+        <v>-1.04214510492939E-14</v>
       </c>
       <c r="S3">
-        <v>-5.210662603514871E-14</v>
+        <v>-1.042145128706942E-14</v>
       </c>
       <c r="T3">
-        <v>-3.647452789181846E-14</v>
+        <v>-2.605323420844185E-14</v>
       </c>
       <c r="U3">
         <v>-1.921126409769406E-09</v>
       </c>
       <c r="V3">
-        <v>1.921123806265545E-09</v>
+        <v>1.921129016912388E-09</v>
       </c>
       <c r="W3">
-        <v>4.689582157519516E-14</v>
+        <v>1.563194052506499E-14</v>
       </c>
       <c r="X3">
-        <v>1.921131620470234E-09</v>
+        <v>1.921123804499975E-09</v>
       </c>
       <c r="Y3">
-        <v>-1.92111859556471E-09</v>
+        <v>-1.921134227505241E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -1182,34 +1182,34 @@
         <v>1.100000023808765</v>
       </c>
       <c r="AG3">
-        <v>0.5500000116439205</v>
+        <v>0.5500000116439211</v>
       </c>
       <c r="AH3">
-        <v>0.5500000121648446</v>
+        <v>0.5500000121648428</v>
       </c>
       <c r="AI3">
         <v>1.100000023808766</v>
       </c>
       <c r="AJ3">
-        <v>0.5500000116593765</v>
+        <v>0.5500000116593771</v>
       </c>
       <c r="AK3">
-        <v>0.5500000121493875</v>
+        <v>0.5500000121493862</v>
       </c>
       <c r="AL3">
-        <v>7.251392252311684E-13</v>
+        <v>7.192369347422537E-13</v>
       </c>
       <c r="AM3">
-        <v>-179.9999999938803</v>
+        <v>-179.9999999938802</v>
       </c>
       <c r="AN3">
-        <v>179.9999999938735</v>
+        <v>179.9999999938734</v>
       </c>
       <c r="AO3">
-        <v>7.082758124159204E-13</v>
+        <v>7.06028871780549E-13</v>
       </c>
       <c r="AP3">
-        <v>-179.9999999952994</v>
+        <v>-179.9999999952993</v>
       </c>
       <c r="AQ3">
         <v>179.9999999952925</v>
@@ -1256,40 +1256,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>-2.605323420844159E-14</v>
+        <v>3.270476197627079E-28</v>
       </c>
       <c r="O4">
-        <v>2.049494803798653E-19</v>
+        <v>1.823746889024328E-14</v>
       </c>
       <c r="P4">
-        <v>2.084279255501348E-14</v>
+        <v>-5.210441662107425E-15</v>
       </c>
       <c r="Q4">
-        <v>1.56319405250648E-14</v>
+        <v>-1.042129368337694E-14</v>
       </c>
       <c r="R4">
-        <v>2.605166051974046E-15</v>
+        <v>-1.04214510492939E-14</v>
       </c>
       <c r="S4">
-        <v>-2.084274497194647E-14</v>
+        <v>-1.042145128706942E-14</v>
       </c>
       <c r="T4">
-        <v>-2.08425873667538E-14</v>
+        <v>-2.605323420844185E-14</v>
       </c>
       <c r="U4">
-        <v>-1.921126409769407E-09</v>
+        <v>-1.921126409769406E-09</v>
       </c>
       <c r="V4">
-        <v>1.921123806265547E-09</v>
+        <v>1.921129016912388E-09</v>
       </c>
       <c r="W4">
-        <v>2.605323420844206E-14</v>
+        <v>1.563194052506499E-14</v>
       </c>
       <c r="X4">
-        <v>1.921131620470233E-09</v>
+        <v>1.921123804499975E-09</v>
       </c>
       <c r="Y4">
-        <v>-1.921129016858401E-09</v>
+        <v>-1.921134227505241E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -1313,34 +1313,34 @@
         <v>1.100000023808765</v>
       </c>
       <c r="AG4">
-        <v>0.5500000116439206</v>
+        <v>0.5500000116439211</v>
       </c>
       <c r="AH4">
-        <v>0.5500000121648444</v>
+        <v>0.5500000121648428</v>
       </c>
       <c r="AI4">
         <v>1.100000023808766</v>
       </c>
       <c r="AJ4">
-        <v>0.5500000116593765</v>
+        <v>0.5500000116593771</v>
       </c>
       <c r="AK4">
-        <v>0.5500000121493875</v>
+        <v>0.5500000121493862</v>
       </c>
       <c r="AL4">
-        <v>7.138106372806309E-13</v>
+        <v>7.192369347422537E-13</v>
       </c>
       <c r="AM4">
-        <v>-179.9999999938803</v>
+        <v>-179.9999999938802</v>
       </c>
       <c r="AN4">
         <v>179.9999999938734</v>
       </c>
       <c r="AO4">
-        <v>7.082758124159204E-13</v>
+        <v>7.06028871780549E-13</v>
       </c>
       <c r="AP4">
-        <v>-179.9999999952994</v>
+        <v>-179.9999999952993</v>
       </c>
       <c r="AQ4">
         <v>179.9999999952925</v>
@@ -1531,40 +1531,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-1.563194052511152E-14</v>
+        <v>-3.126388105022306E-14</v>
       </c>
       <c r="O2">
-        <v>-7.307852025730608E-10</v>
+        <v>-7.308197424369513E-10</v>
       </c>
       <c r="P2">
-        <v>-2.039307866162078E-09</v>
+        <v>-2.039286075774511E-09</v>
       </c>
       <c r="Q2">
-        <v>1.042129368340781E-14</v>
+        <v>1.042129368340791E-14</v>
       </c>
       <c r="R2">
-        <v>7.307843618725196E-10</v>
+        <v>7.308228603165351E-10</v>
       </c>
       <c r="S2">
-        <v>2.039303680338544E-09</v>
+        <v>2.039288580196965E-09</v>
       </c>
       <c r="T2">
-        <v>2.084258736681494E-14</v>
+        <v>4.168517473362989E-14</v>
       </c>
       <c r="U2">
-        <v>5.822506508613689E-09</v>
+        <v>5.822510569080358E-09</v>
       </c>
       <c r="V2">
-        <v>-3.556072532027602E-09</v>
+        <v>-3.556066701606406E-09</v>
       </c>
       <c r="W2">
-        <v>-2.605323420851877E-14</v>
+        <v>-3.647452789192632E-14</v>
       </c>
       <c r="X2">
-        <v>-5.822503390695197E-09</v>
+        <v>-5.822509727762873E-09</v>
       </c>
       <c r="Y2">
-        <v>3.556074214334644E-09</v>
+        <v>3.556060833842657E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -1588,37 +1588,37 @@
         <v>1.100000023812017</v>
       </c>
       <c r="AG2">
-        <v>0.6816683458635712</v>
+        <v>0.6816683458635714</v>
       </c>
       <c r="AH2">
-        <v>0.4761907155780339</v>
+        <v>0.4761907155780333</v>
       </c>
       <c r="AI2">
         <v>1.100000023812017</v>
       </c>
       <c r="AJ2">
-        <v>0.6816683458299556</v>
+        <v>0.6816683458299562</v>
       </c>
       <c r="AK2">
-        <v>0.4761907156277806</v>
+        <v>0.4761907156277799</v>
       </c>
       <c r="AL2">
-        <v>5.505429226348665E-13</v>
+        <v>5.58505037427309E-13</v>
       </c>
       <c r="AM2">
         <v>-164.9034422584273</v>
       </c>
       <c r="AN2">
-        <v>158.1097491654785</v>
+        <v>158.1097491654784</v>
       </c>
       <c r="AO2">
-        <v>5.650789979120009E-13</v>
+        <v>5.728175655668569E-13</v>
       </c>
       <c r="AP2">
-        <v>-164.9034422552287</v>
+        <v>-164.9034422552286</v>
       </c>
       <c r="AQ2">
-        <v>158.1097491642543</v>
+        <v>158.1097491642542</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -1662,40 +1662,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>2.627546886805935E-28</v>
+        <v>-2.084258736681504E-14</v>
       </c>
       <c r="O3">
-        <v>2.43599552930455E-10</v>
+        <v>2.435923322786377E-10</v>
       </c>
       <c r="P3">
-        <v>6.797815731353703E-10</v>
+        <v>6.797715189311442E-10</v>
       </c>
       <c r="Q3">
-        <v>-5.21064684170398E-15</v>
+        <v>-5.210646841703879E-15</v>
       </c>
       <c r="R3">
-        <v>-2.43587923525643E-10</v>
+        <v>-2.435801082519401E-10</v>
       </c>
       <c r="S3">
-        <v>-6.797941314409186E-10</v>
+        <v>-6.797690147655948E-10</v>
       </c>
       <c r="T3">
-        <v>-2.605323420851886E-14</v>
+        <v>-5.210646841703985E-15</v>
       </c>
       <c r="U3">
-        <v>-1.940852129875164E-09</v>
+        <v>-1.940800566447012E-09</v>
       </c>
       <c r="V3">
-        <v>1.185355816285667E-09</v>
+        <v>1.185354994131345E-09</v>
       </c>
       <c r="W3">
-        <v>2.084258736681505E-14</v>
+        <v>1.04212936834075E-14</v>
       </c>
       <c r="X3">
-        <v>1.940858611460401E-09</v>
+        <v>1.940817241793502E-09</v>
       </c>
       <c r="Y3">
-        <v>-1.185350770311873E-09</v>
+        <v>-1.185360862186582E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -1719,37 +1719,37 @@
         <v>1.100000023812017</v>
       </c>
       <c r="AG3">
-        <v>0.6816683458187509</v>
+        <v>0.6816683458187512</v>
       </c>
       <c r="AH3">
-        <v>0.4761907156443635</v>
+        <v>0.4761907156443623</v>
       </c>
       <c r="AI3">
         <v>1.100000023812017</v>
       </c>
       <c r="AJ3">
-        <v>0.6816683458299556</v>
+        <v>0.6816683458299562</v>
       </c>
       <c r="AK3">
-        <v>0.4761907156277806</v>
+        <v>0.4761907156277799</v>
       </c>
       <c r="AL3">
-        <v>5.778451376969036E-13</v>
+        <v>5.850523010660103E-13</v>
       </c>
       <c r="AM3">
-        <v>-164.9034422541625</v>
+        <v>-164.9034422541624</v>
       </c>
       <c r="AN3">
-        <v>158.1097491638463</v>
+        <v>158.1097491638462</v>
       </c>
       <c r="AO3">
-        <v>5.650789979120009E-13</v>
+        <v>5.728175655668569E-13</v>
       </c>
       <c r="AP3">
-        <v>-164.9034422552287</v>
+        <v>-164.9034422552286</v>
       </c>
       <c r="AQ3">
-        <v>158.1097491642543</v>
+        <v>158.1097491642542</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -1793,40 +1793,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>-3.64745278919263E-14</v>
+        <v>-2.084258736681504E-14</v>
       </c>
       <c r="O4">
-        <v>2.435928250139806E-10</v>
+        <v>2.435923322786377E-10</v>
       </c>
       <c r="P4">
-        <v>6.797648286851535E-10</v>
+        <v>6.797715189311442E-10</v>
       </c>
       <c r="Q4">
-        <v>2.605323420851877E-14</v>
+        <v>-5.210646841703879E-15</v>
       </c>
       <c r="R4">
-        <v>-2.435811956091689E-10</v>
+        <v>-2.435801082519401E-10</v>
       </c>
       <c r="S4">
-        <v>-6.797773869907021E-10</v>
+        <v>-6.797690147655948E-10</v>
       </c>
       <c r="T4">
-        <v>-1.04212936834079E-14</v>
+        <v>-5.210646841703985E-15</v>
       </c>
       <c r="U4">
-        <v>-1.940827189150647E-09</v>
+        <v>-1.940800566447012E-09</v>
       </c>
       <c r="V4">
-        <v>1.185362544202141E-09</v>
+        <v>1.185354994131345E-09</v>
       </c>
       <c r="W4">
-        <v>1.042129368340781E-14</v>
+        <v>1.04212936834075E-14</v>
       </c>
       <c r="X4">
-        <v>1.940833670735883E-09</v>
+        <v>1.940817241793502E-09</v>
       </c>
       <c r="Y4">
-        <v>-1.185357498228347E-09</v>
+        <v>-1.185360862186582E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -1850,37 +1850,37 @@
         <v>1.100000023812017</v>
       </c>
       <c r="AG4">
-        <v>0.681668345818751</v>
+        <v>0.6816683458187512</v>
       </c>
       <c r="AH4">
-        <v>0.4761907156443634</v>
+        <v>0.4761907156443623</v>
       </c>
       <c r="AI4">
         <v>1.100000023812017</v>
       </c>
       <c r="AJ4">
-        <v>0.6816683458299556</v>
+        <v>0.6816683458299562</v>
       </c>
       <c r="AK4">
-        <v>0.4761907156277806</v>
+        <v>0.4761907156277799</v>
       </c>
       <c r="AL4">
-        <v>5.665163787924767E-13</v>
+        <v>5.850523010660103E-13</v>
       </c>
       <c r="AM4">
-        <v>-164.9034422541625</v>
+        <v>-164.9034422541624</v>
       </c>
       <c r="AN4">
-        <v>158.1097491638463</v>
+        <v>158.1097491638462</v>
       </c>
       <c r="AO4">
-        <v>5.650789979120009E-13</v>
+        <v>5.728175655668569E-13</v>
       </c>
       <c r="AP4">
-        <v>-164.9034422552287</v>
+        <v>-164.9034422552286</v>
       </c>
       <c r="AQ4">
-        <v>158.1097491642543</v>
+        <v>158.1097491642542</v>
       </c>
     </row>
   </sheetData>
@@ -2068,40 +2068,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-1.563194052511152E-14</v>
+        <v>-3.126388105022306E-14</v>
       </c>
       <c r="O2">
-        <v>-7.307852025730608E-10</v>
+        <v>-7.308197424369513E-10</v>
       </c>
       <c r="P2">
-        <v>-2.039307866162078E-09</v>
+        <v>-2.039286075774511E-09</v>
       </c>
       <c r="Q2">
-        <v>1.042129368340781E-14</v>
+        <v>1.042129368340791E-14</v>
       </c>
       <c r="R2">
-        <v>7.307843618725196E-10</v>
+        <v>7.308228603165351E-10</v>
       </c>
       <c r="S2">
-        <v>2.039303680338544E-09</v>
+        <v>2.039288580196965E-09</v>
       </c>
       <c r="T2">
-        <v>2.084258736681494E-14</v>
+        <v>4.168517473362989E-14</v>
       </c>
       <c r="U2">
-        <v>5.822506508613689E-09</v>
+        <v>5.822510569080358E-09</v>
       </c>
       <c r="V2">
-        <v>-3.556072532027602E-09</v>
+        <v>-3.556066701606406E-09</v>
       </c>
       <c r="W2">
-        <v>-2.605323420851877E-14</v>
+        <v>-3.647452789192632E-14</v>
       </c>
       <c r="X2">
-        <v>-5.822503390695197E-09</v>
+        <v>-5.822509727762873E-09</v>
       </c>
       <c r="Y2">
-        <v>3.556074214334644E-09</v>
+        <v>3.556060833842657E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -2125,37 +2125,37 @@
         <v>1.100000023812017</v>
       </c>
       <c r="AG2">
-        <v>0.6816683458635712</v>
+        <v>0.6816683458635714</v>
       </c>
       <c r="AH2">
-        <v>0.4761907155780339</v>
+        <v>0.4761907155780333</v>
       </c>
       <c r="AI2">
         <v>1.100000023812017</v>
       </c>
       <c r="AJ2">
-        <v>0.6816683458299556</v>
+        <v>0.6816683458299562</v>
       </c>
       <c r="AK2">
-        <v>0.4761907156277806</v>
+        <v>0.4761907156277799</v>
       </c>
       <c r="AL2">
-        <v>5.505429226348665E-13</v>
+        <v>5.58505037427309E-13</v>
       </c>
       <c r="AM2">
         <v>-164.9034422584273</v>
       </c>
       <c r="AN2">
-        <v>158.1097491654785</v>
+        <v>158.1097491654784</v>
       </c>
       <c r="AO2">
-        <v>5.650789979120009E-13</v>
+        <v>5.728175655668569E-13</v>
       </c>
       <c r="AP2">
-        <v>-164.9034422552287</v>
+        <v>-164.9034422552286</v>
       </c>
       <c r="AQ2">
-        <v>158.1097491642543</v>
+        <v>158.1097491642542</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -2199,40 +2199,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>2.627546886805935E-28</v>
+        <v>-2.084258736681504E-14</v>
       </c>
       <c r="O3">
-        <v>2.43599552930455E-10</v>
+        <v>2.435923322786377E-10</v>
       </c>
       <c r="P3">
-        <v>6.797815731353703E-10</v>
+        <v>6.797715189311442E-10</v>
       </c>
       <c r="Q3">
-        <v>-5.21064684170398E-15</v>
+        <v>-5.210646841703879E-15</v>
       </c>
       <c r="R3">
-        <v>-2.43587923525643E-10</v>
+        <v>-2.435801082519401E-10</v>
       </c>
       <c r="S3">
-        <v>-6.797941314409186E-10</v>
+        <v>-6.797690147655948E-10</v>
       </c>
       <c r="T3">
-        <v>-2.605323420851886E-14</v>
+        <v>-5.210646841703985E-15</v>
       </c>
       <c r="U3">
-        <v>-1.940852129875164E-09</v>
+        <v>-1.940800566447012E-09</v>
       </c>
       <c r="V3">
-        <v>1.185355816285667E-09</v>
+        <v>1.185354994131345E-09</v>
       </c>
       <c r="W3">
-        <v>2.084258736681505E-14</v>
+        <v>1.04212936834075E-14</v>
       </c>
       <c r="X3">
-        <v>1.940858611460401E-09</v>
+        <v>1.940817241793502E-09</v>
       </c>
       <c r="Y3">
-        <v>-1.185350770311873E-09</v>
+        <v>-1.185360862186582E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -2256,37 +2256,37 @@
         <v>1.100000023812017</v>
       </c>
       <c r="AG3">
-        <v>0.6816683458187509</v>
+        <v>0.6816683458187512</v>
       </c>
       <c r="AH3">
-        <v>0.4761907156443635</v>
+        <v>0.4761907156443623</v>
       </c>
       <c r="AI3">
         <v>1.100000023812017</v>
       </c>
       <c r="AJ3">
-        <v>0.6816683458299556</v>
+        <v>0.6816683458299562</v>
       </c>
       <c r="AK3">
-        <v>0.4761907156277806</v>
+        <v>0.4761907156277799</v>
       </c>
       <c r="AL3">
-        <v>5.778451376969036E-13</v>
+        <v>5.850523010660103E-13</v>
       </c>
       <c r="AM3">
-        <v>-164.9034422541625</v>
+        <v>-164.9034422541624</v>
       </c>
       <c r="AN3">
-        <v>158.1097491638463</v>
+        <v>158.1097491638462</v>
       </c>
       <c r="AO3">
-        <v>5.650789979120009E-13</v>
+        <v>5.728175655668569E-13</v>
       </c>
       <c r="AP3">
-        <v>-164.9034422552287</v>
+        <v>-164.9034422552286</v>
       </c>
       <c r="AQ3">
-        <v>158.1097491642543</v>
+        <v>158.1097491642542</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -2330,40 +2330,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>-3.64745278919263E-14</v>
+        <v>-2.084258736681504E-14</v>
       </c>
       <c r="O4">
-        <v>2.435928250139806E-10</v>
+        <v>2.435923322786377E-10</v>
       </c>
       <c r="P4">
-        <v>6.797648286851535E-10</v>
+        <v>6.797715189311442E-10</v>
       </c>
       <c r="Q4">
-        <v>2.605323420851877E-14</v>
+        <v>-5.210646841703879E-15</v>
       </c>
       <c r="R4">
-        <v>-2.435811956091689E-10</v>
+        <v>-2.435801082519401E-10</v>
       </c>
       <c r="S4">
-        <v>-6.797773869907021E-10</v>
+        <v>-6.797690147655948E-10</v>
       </c>
       <c r="T4">
-        <v>-1.04212936834079E-14</v>
+        <v>-5.210646841703985E-15</v>
       </c>
       <c r="U4">
-        <v>-1.940827189150647E-09</v>
+        <v>-1.940800566447012E-09</v>
       </c>
       <c r="V4">
-        <v>1.185362544202141E-09</v>
+        <v>1.185354994131345E-09</v>
       </c>
       <c r="W4">
-        <v>1.042129368340781E-14</v>
+        <v>1.04212936834075E-14</v>
       </c>
       <c r="X4">
-        <v>1.940833670735883E-09</v>
+        <v>1.940817241793502E-09</v>
       </c>
       <c r="Y4">
-        <v>-1.185357498228347E-09</v>
+        <v>-1.185360862186582E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -2387,37 +2387,37 @@
         <v>1.100000023812017</v>
       </c>
       <c r="AG4">
-        <v>0.681668345818751</v>
+        <v>0.6816683458187512</v>
       </c>
       <c r="AH4">
-        <v>0.4761907156443634</v>
+        <v>0.4761907156443623</v>
       </c>
       <c r="AI4">
         <v>1.100000023812017</v>
       </c>
       <c r="AJ4">
-        <v>0.6816683458299556</v>
+        <v>0.6816683458299562</v>
       </c>
       <c r="AK4">
-        <v>0.4761907156277806</v>
+        <v>0.4761907156277799</v>
       </c>
       <c r="AL4">
-        <v>5.665163787924767E-13</v>
+        <v>5.850523010660103E-13</v>
       </c>
       <c r="AM4">
-        <v>-164.9034422541625</v>
+        <v>-164.9034422541624</v>
       </c>
       <c r="AN4">
-        <v>158.1097491638463</v>
+        <v>158.1097491638462</v>
       </c>
       <c r="AO4">
-        <v>5.650789979120009E-13</v>
+        <v>5.728175655668569E-13</v>
       </c>
       <c r="AP4">
-        <v>-164.9034422552287</v>
+        <v>-164.9034422552286</v>
       </c>
       <c r="AQ4">
-        <v>158.1097491642543</v>
+        <v>158.1097491642542</v>
       </c>
     </row>
   </sheetData>
@@ -2605,40 +2605,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-9.4739031434715E-15</v>
+        <v>-2.368475785867803E-14</v>
       </c>
       <c r="O2">
-        <v>-4.737053885524563E-15</v>
+        <v>-1.065824334797361E-14</v>
       </c>
       <c r="P2">
-        <v>-4.737054459106166E-15</v>
+        <v>7.105324473310243E-15</v>
       </c>
       <c r="Q2">
-        <v>7.105427357603597E-15</v>
+        <v>2.131628207281025E-14</v>
       </c>
       <c r="R2">
-        <v>9.474684983688495E-15</v>
+        <v>1.065892287047445E-14</v>
       </c>
       <c r="S2">
-        <v>7.106209777079265E-15</v>
+        <v>-4.736169150254815E-15</v>
       </c>
       <c r="T2">
-        <v>9.473903143471265E-15</v>
+        <v>-3.315866100215012E-14</v>
       </c>
       <c r="U2">
-        <v>4.763111385045242E-09</v>
+        <v>4.76310901656947E-09</v>
       </c>
       <c r="V2">
-        <v>-4.763113757011745E-09</v>
+        <v>-4.763123230914906E-09</v>
       </c>
       <c r="W2">
-        <v>-4.736951571735602E-15</v>
+        <v>2.842170943041441E-14</v>
       </c>
       <c r="X2">
-        <v>-4.763116121595246E-09</v>
+        <v>-4.763094805313196E-09</v>
       </c>
       <c r="Y2">
-        <v>4.763113757413309E-09</v>
+        <v>4.763132705219617E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -2659,25 +2659,25 @@
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>1.000000000000357</v>
+        <v>1.000000000000356</v>
       </c>
       <c r="AG2">
-        <v>0.499999999816962</v>
+        <v>0.4999999998169635</v>
       </c>
       <c r="AH2">
-        <v>0.5000000001833945</v>
+        <v>0.5000000001833959</v>
       </c>
       <c r="AI2">
         <v>1.000000000000357</v>
       </c>
       <c r="AJ2">
-        <v>0.4999999997748085</v>
+        <v>0.49999999977481</v>
       </c>
       <c r="AK2">
-        <v>0.5000000002255481</v>
+        <v>0.5000000002255491</v>
       </c>
       <c r="AL2">
-        <v>7.187676407683538E-13</v>
+        <v>7.200674789220003E-13</v>
       </c>
       <c r="AM2">
         <v>-179.999999998762</v>
@@ -2686,13 +2686,13 @@
         <v>179.9999999987551</v>
       </c>
       <c r="AO2">
-        <v>7.315388087776645E-13</v>
+        <v>7.265902477670184E-13</v>
       </c>
       <c r="AP2">
-        <v>-179.9999999905878</v>
+        <v>-179.9999999905879</v>
       </c>
       <c r="AQ2">
-        <v>179.999999990581</v>
+        <v>179.9999999905809</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -2736,40 +2736,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.894780628694277E-14</v>
+        <v>7.105427357603479E-15</v>
       </c>
       <c r="O3">
-        <v>9.474239263630073E-15</v>
+        <v>-1.183901772239167E-15</v>
       </c>
       <c r="P3">
-        <v>3.363111517505249E-19</v>
+        <v>7.105763670503451E-15</v>
       </c>
       <c r="Q3">
-        <v>-1.894780628694283E-14</v>
+        <v>-7.105427357603476E-15</v>
       </c>
       <c r="R3">
-        <v>-9.474163757140443E-15</v>
+        <v>1.183977276332232E-15</v>
       </c>
       <c r="S3">
-        <v>2.368214979436085E-15</v>
+        <v>-2.608057970110032E-19</v>
       </c>
       <c r="T3">
-        <v>2.40474432886885E-28</v>
+        <v>4.736951571735779E-15</v>
       </c>
       <c r="U3">
-        <v>-1.58772905857831E-09</v>
+        <v>-1.587712479247822E-09</v>
       </c>
       <c r="V3">
-        <v>1.58771721771992E-09</v>
+        <v>1.587707743816773E-09</v>
       </c>
       <c r="W3">
-        <v>4.73695157173545E-15</v>
+        <v>-4.736951571735781E-15</v>
       </c>
       <c r="X3">
-        <v>1.587724321671359E-09</v>
+        <v>1.587717216244011E-09</v>
       </c>
       <c r="Y3">
-        <v>-1.587717217675301E-09</v>
+        <v>-1.587698269869008E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -2793,22 +2793,22 @@
         <v>1.000000000000357</v>
       </c>
       <c r="AG3">
-        <v>0.4999999997607574</v>
+        <v>0.4999999997607584</v>
       </c>
       <c r="AH3">
-        <v>0.5000000002395996</v>
+        <v>0.5000000002396002</v>
       </c>
       <c r="AI3">
         <v>1.000000000000357</v>
       </c>
       <c r="AJ3">
-        <v>0.4999999997748085</v>
+        <v>0.49999999977481</v>
       </c>
       <c r="AK3">
-        <v>0.5000000002255481</v>
+        <v>0.5000000002255491</v>
       </c>
       <c r="AL3">
-        <v>7.271643944721282E-13</v>
+        <v>7.042224548338448E-13</v>
       </c>
       <c r="AM3">
         <v>-179.9999999878631</v>
@@ -2817,13 +2817,13 @@
         <v>179.9999999878563</v>
       </c>
       <c r="AO3">
-        <v>7.315388087776645E-13</v>
+        <v>7.265902477670184E-13</v>
       </c>
       <c r="AP3">
-        <v>-179.9999999905878</v>
+        <v>-179.9999999905879</v>
       </c>
       <c r="AQ3">
-        <v>179.999999990581</v>
+        <v>179.9999999905809</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -2867,40 +2867,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>4.736951571735751E-15</v>
+        <v>7.105427357603479E-15</v>
       </c>
       <c r="O4">
-        <v>-4.736615447835519E-15</v>
+        <v>-1.183901772239167E-15</v>
       </c>
       <c r="P4">
-        <v>4.737287880437079E-15</v>
+        <v>7.105763670503451E-15</v>
       </c>
       <c r="Q4">
-        <v>-4.736951571735812E-15</v>
+        <v>-7.105427357603476E-15</v>
       </c>
       <c r="R4">
-        <v>4.736690953216334E-15</v>
+        <v>1.183977276332232E-15</v>
       </c>
       <c r="S4">
-        <v>-2.368736591322263E-15</v>
+        <v>-2.608057970110032E-19</v>
       </c>
       <c r="T4">
-        <v>-4.736951571735632E-15</v>
+        <v>4.736951571735779E-15</v>
       </c>
       <c r="U4">
-        <v>-1.587719584675174E-09</v>
+        <v>-1.587712479247822E-09</v>
       </c>
       <c r="V4">
-        <v>1.587698269913623E-09</v>
+        <v>1.587707743816773E-09</v>
       </c>
       <c r="W4">
-        <v>9.473903143471321E-15</v>
+        <v>-4.736951571735781E-15</v>
       </c>
       <c r="X4">
-        <v>1.587714847768223E-09</v>
+        <v>1.587717216244011E-09</v>
       </c>
       <c r="Y4">
-        <v>-1.587698269869005E-09</v>
+        <v>-1.587698269869008E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -2924,22 +2924,22 @@
         <v>1.000000000000357</v>
       </c>
       <c r="AG4">
-        <v>0.4999999997607573</v>
+        <v>0.4999999997607584</v>
       </c>
       <c r="AH4">
-        <v>0.5000000002395995</v>
+        <v>0.5000000002396002</v>
       </c>
       <c r="AI4">
         <v>1.000000000000357</v>
       </c>
       <c r="AJ4">
-        <v>0.4999999997748085</v>
+        <v>0.49999999977481</v>
       </c>
       <c r="AK4">
-        <v>0.5000000002255481</v>
+        <v>0.5000000002255491</v>
       </c>
       <c r="AL4">
-        <v>7.271643765637189E-13</v>
+        <v>7.042224548338448E-13</v>
       </c>
       <c r="AM4">
         <v>-179.9999999878631</v>
@@ -2948,13 +2948,13 @@
         <v>179.9999999878563</v>
       </c>
       <c r="AO4">
-        <v>7.315388087776645E-13</v>
+        <v>7.265902477670184E-13</v>
       </c>
       <c r="AP4">
-        <v>-179.9999999905878</v>
+        <v>-179.9999999905879</v>
       </c>
       <c r="AQ4">
-        <v>179.999999990581</v>
+        <v>179.9999999905809</v>
       </c>
     </row>
   </sheetData>
@@ -3142,40 +3142,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-9.4739031434715E-15</v>
+        <v>-2.368475785867803E-14</v>
       </c>
       <c r="O2">
-        <v>-4.737053885524563E-15</v>
+        <v>-1.065824334797361E-14</v>
       </c>
       <c r="P2">
-        <v>-4.737054459106166E-15</v>
+        <v>7.105324473310243E-15</v>
       </c>
       <c r="Q2">
-        <v>7.105427357603597E-15</v>
+        <v>2.131628207281025E-14</v>
       </c>
       <c r="R2">
-        <v>9.474684983688495E-15</v>
+        <v>1.065892287047445E-14</v>
       </c>
       <c r="S2">
-        <v>7.106209777079265E-15</v>
+        <v>-4.736169150254815E-15</v>
       </c>
       <c r="T2">
-        <v>9.473903143471265E-15</v>
+        <v>-3.315866100215012E-14</v>
       </c>
       <c r="U2">
-        <v>4.763111385045242E-09</v>
+        <v>4.76310901656947E-09</v>
       </c>
       <c r="V2">
-        <v>-4.763113757011745E-09</v>
+        <v>-4.763123230914906E-09</v>
       </c>
       <c r="W2">
-        <v>-4.736951571735602E-15</v>
+        <v>2.842170943041441E-14</v>
       </c>
       <c r="X2">
-        <v>-4.763116121595246E-09</v>
+        <v>-4.763094805313196E-09</v>
       </c>
       <c r="Y2">
-        <v>4.763113757413309E-09</v>
+        <v>4.763132705219617E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -3196,25 +3196,25 @@
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>1.000000000000357</v>
+        <v>1.000000000000356</v>
       </c>
       <c r="AG2">
-        <v>0.499999999816962</v>
+        <v>0.4999999998169635</v>
       </c>
       <c r="AH2">
-        <v>0.5000000001833945</v>
+        <v>0.5000000001833959</v>
       </c>
       <c r="AI2">
         <v>1.000000000000357</v>
       </c>
       <c r="AJ2">
-        <v>0.4999999997748085</v>
+        <v>0.49999999977481</v>
       </c>
       <c r="AK2">
-        <v>0.5000000002255481</v>
+        <v>0.5000000002255491</v>
       </c>
       <c r="AL2">
-        <v>7.187676407683538E-13</v>
+        <v>7.200674789220003E-13</v>
       </c>
       <c r="AM2">
         <v>-179.999999998762</v>
@@ -3223,13 +3223,13 @@
         <v>179.9999999987551</v>
       </c>
       <c r="AO2">
-        <v>7.315388087776645E-13</v>
+        <v>7.265902477670184E-13</v>
       </c>
       <c r="AP2">
-        <v>-179.9999999905878</v>
+        <v>-179.9999999905879</v>
       </c>
       <c r="AQ2">
-        <v>179.999999990581</v>
+        <v>179.9999999905809</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -3273,40 +3273,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.894780628694277E-14</v>
+        <v>7.105427357603479E-15</v>
       </c>
       <c r="O3">
-        <v>9.474239263630073E-15</v>
+        <v>-1.183901772239167E-15</v>
       </c>
       <c r="P3">
-        <v>3.363111517505249E-19</v>
+        <v>7.105763670503451E-15</v>
       </c>
       <c r="Q3">
-        <v>-1.894780628694283E-14</v>
+        <v>-7.105427357603476E-15</v>
       </c>
       <c r="R3">
-        <v>-9.474163757140443E-15</v>
+        <v>1.183977276332232E-15</v>
       </c>
       <c r="S3">
-        <v>2.368214979436085E-15</v>
+        <v>-2.608057970110032E-19</v>
       </c>
       <c r="T3">
-        <v>2.40474432886885E-28</v>
+        <v>4.736951571735779E-15</v>
       </c>
       <c r="U3">
-        <v>-1.58772905857831E-09</v>
+        <v>-1.587712479247822E-09</v>
       </c>
       <c r="V3">
-        <v>1.58771721771992E-09</v>
+        <v>1.587707743816773E-09</v>
       </c>
       <c r="W3">
-        <v>4.73695157173545E-15</v>
+        <v>-4.736951571735781E-15</v>
       </c>
       <c r="X3">
-        <v>1.587724321671359E-09</v>
+        <v>1.587717216244011E-09</v>
       </c>
       <c r="Y3">
-        <v>-1.587717217675301E-09</v>
+        <v>-1.587698269869008E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -3330,22 +3330,22 @@
         <v>1.000000000000357</v>
       </c>
       <c r="AG3">
-        <v>0.4999999997607574</v>
+        <v>0.4999999997607584</v>
       </c>
       <c r="AH3">
-        <v>0.5000000002395996</v>
+        <v>0.5000000002396002</v>
       </c>
       <c r="AI3">
         <v>1.000000000000357</v>
       </c>
       <c r="AJ3">
-        <v>0.4999999997748085</v>
+        <v>0.49999999977481</v>
       </c>
       <c r="AK3">
-        <v>0.5000000002255481</v>
+        <v>0.5000000002255491</v>
       </c>
       <c r="AL3">
-        <v>7.271643944721282E-13</v>
+        <v>7.042224548338448E-13</v>
       </c>
       <c r="AM3">
         <v>-179.9999999878631</v>
@@ -3354,13 +3354,13 @@
         <v>179.9999999878563</v>
       </c>
       <c r="AO3">
-        <v>7.315388087776645E-13</v>
+        <v>7.265902477670184E-13</v>
       </c>
       <c r="AP3">
-        <v>-179.9999999905878</v>
+        <v>-179.9999999905879</v>
       </c>
       <c r="AQ3">
-        <v>179.999999990581</v>
+        <v>179.9999999905809</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -3404,40 +3404,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>4.736951571735751E-15</v>
+        <v>7.105427357603479E-15</v>
       </c>
       <c r="O4">
-        <v>-4.736615447835519E-15</v>
+        <v>-1.183901772239167E-15</v>
       </c>
       <c r="P4">
-        <v>4.737287880437079E-15</v>
+        <v>7.105763670503451E-15</v>
       </c>
       <c r="Q4">
-        <v>-4.736951571735812E-15</v>
+        <v>-7.105427357603476E-15</v>
       </c>
       <c r="R4">
-        <v>4.736690953216334E-15</v>
+        <v>1.183977276332232E-15</v>
       </c>
       <c r="S4">
-        <v>-2.368736591322263E-15</v>
+        <v>-2.608057970110032E-19</v>
       </c>
       <c r="T4">
-        <v>-4.736951571735632E-15</v>
+        <v>4.736951571735779E-15</v>
       </c>
       <c r="U4">
-        <v>-1.587719584675174E-09</v>
+        <v>-1.587712479247822E-09</v>
       </c>
       <c r="V4">
-        <v>1.587698269913623E-09</v>
+        <v>1.587707743816773E-09</v>
       </c>
       <c r="W4">
-        <v>9.473903143471321E-15</v>
+        <v>-4.736951571735781E-15</v>
       </c>
       <c r="X4">
-        <v>1.587714847768223E-09</v>
+        <v>1.587717216244011E-09</v>
       </c>
       <c r="Y4">
-        <v>-1.587698269869005E-09</v>
+        <v>-1.587698269869008E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -3461,22 +3461,22 @@
         <v>1.000000000000357</v>
       </c>
       <c r="AG4">
-        <v>0.4999999997607573</v>
+        <v>0.4999999997607584</v>
       </c>
       <c r="AH4">
-        <v>0.5000000002395995</v>
+        <v>0.5000000002396002</v>
       </c>
       <c r="AI4">
         <v>1.000000000000357</v>
       </c>
       <c r="AJ4">
-        <v>0.4999999997748085</v>
+        <v>0.49999999977481</v>
       </c>
       <c r="AK4">
-        <v>0.5000000002255481</v>
+        <v>0.5000000002255491</v>
       </c>
       <c r="AL4">
-        <v>7.271643765637189E-13</v>
+        <v>7.042224548338448E-13</v>
       </c>
       <c r="AM4">
         <v>-179.9999999878631</v>
@@ -3485,13 +3485,13 @@
         <v>179.9999999878563</v>
       </c>
       <c r="AO4">
-        <v>7.315388087776645E-13</v>
+        <v>7.265902477670184E-13</v>
       </c>
       <c r="AP4">
-        <v>-179.9999999905878</v>
+        <v>-179.9999999905879</v>
       </c>
       <c r="AQ4">
-        <v>179.999999990581</v>
+        <v>179.9999999905809</v>
       </c>
     </row>
   </sheetData>
@@ -3679,40 +3679,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-4.736951571761456E-15</v>
+        <v>-2.842170943056872E-14</v>
       </c>
       <c r="O2">
-        <v>-5.559647705424282E-10</v>
+        <v>-5.559745606380389E-10</v>
       </c>
       <c r="P2">
-        <v>-1.551458687093985E-09</v>
+        <v>-1.551456171948554E-09</v>
       </c>
       <c r="Q2">
-        <v>2.36847578588074E-15</v>
+        <v>3.079018521644949E-14</v>
       </c>
       <c r="R2">
-        <v>5.559676023600634E-10</v>
+        <v>5.559773924556744E-10</v>
       </c>
       <c r="S2">
-        <v>1.551457898520399E-09</v>
+        <v>1.551456172428291E-09</v>
       </c>
       <c r="T2">
-        <v>-2.36847578588079E-15</v>
+        <v>-1.421085471528473E-14</v>
       </c>
       <c r="U2">
-        <v>4.833152290628798E-09</v>
+        <v>4.833149902898428E-09</v>
       </c>
       <c r="V2">
-        <v>-3.10889827966872E-09</v>
+        <v>-3.108903523648883E-09</v>
       </c>
       <c r="W2">
-        <v>2.505580672434495E-29</v>
+        <v>1.184237892940402E-14</v>
       </c>
       <c r="X2">
-        <v>-4.833145672691931E-09</v>
+        <v>-4.833143284961562E-09</v>
       </c>
       <c r="Y2">
-        <v>3.108889838617948E-09</v>
+        <v>3.108903523932379E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -3733,34 +3733,34 @@
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>1.000000000005801</v>
+        <v>1.0000000000058</v>
       </c>
       <c r="AG2">
-        <v>0.6078088903891387</v>
+        <v>0.6078088903891399</v>
       </c>
       <c r="AH2">
-        <v>0.4340870104140592</v>
+        <v>0.4340870104140604</v>
       </c>
       <c r="AI2">
         <v>1.000000000005801</v>
       </c>
       <c r="AJ2">
-        <v>0.6078088903608013</v>
+        <v>0.6078088903608025</v>
       </c>
       <c r="AK2">
-        <v>0.4340870104725135</v>
+        <v>0.4340870104725145</v>
       </c>
       <c r="AL2">
-        <v>5.970551300423147E-13</v>
+        <v>5.954435851240063E-13</v>
       </c>
       <c r="AM2">
         <v>-166.2935793302449</v>
       </c>
       <c r="AN2">
-        <v>160.6235536346805</v>
+        <v>160.6235536346806</v>
       </c>
       <c r="AO2">
-        <v>6.061248276881061E-13</v>
+        <v>6.016661792876152E-13</v>
       </c>
       <c r="AP2">
         <v>-166.2935793242505</v>
@@ -3810,40 +3810,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.184237892940377E-14</v>
+        <v>2.368475785880644E-15</v>
       </c>
       <c r="O3">
-        <v>1.853262067873465E-10</v>
+        <v>1.853123234396558E-10</v>
       </c>
       <c r="P3">
-        <v>5.171620194541603E-10</v>
+        <v>5.171567754740062E-10</v>
       </c>
       <c r="Q3">
-        <v>-1.184237892940375E-14</v>
+        <v>1.492289787069686E-28</v>
       </c>
       <c r="R3">
-        <v>-1.853261725663145E-10</v>
+        <v>-1.853136536359842E-10</v>
       </c>
       <c r="S3">
-        <v>-5.171575644740245E-10</v>
+        <v>-5.171542602752685E-10</v>
       </c>
       <c r="T3">
-        <v>-7.105427357642095E-15</v>
+        <v>9.473903143522986E-15</v>
       </c>
       <c r="U3">
-        <v>-1.611057540328719E-09</v>
+        <v>-1.611043145038056E-09</v>
       </c>
       <c r="V3">
-        <v>1.036300577410314E-09</v>
+        <v>1.036298062264881E-09</v>
       </c>
       <c r="W3">
-        <v>4.736951571761356E-15</v>
+        <v>-1.421085471528444E-14</v>
       </c>
       <c r="X3">
-        <v>1.611063475804907E-09</v>
+        <v>1.611054674854593E-09</v>
       </c>
       <c r="Y3">
-        <v>-1.036306503567649E-09</v>
+        <v>-1.036303306213536E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -3867,22 +3867,22 @@
         <v>1.000000000005801</v>
       </c>
       <c r="AG3">
-        <v>0.6078088903513558</v>
+        <v>0.6078088903513565</v>
       </c>
       <c r="AH3">
-        <v>0.4340870104919984</v>
+        <v>0.434087010491999</v>
       </c>
       <c r="AI3">
         <v>1.000000000005801</v>
       </c>
       <c r="AJ3">
-        <v>0.6078088903608013</v>
+        <v>0.6078088903608025</v>
       </c>
       <c r="AK3">
-        <v>0.4340870104725135</v>
+        <v>0.4340870104725145</v>
       </c>
       <c r="AL3">
-        <v>6.025079221054697E-13</v>
+        <v>5.831458185787954E-13</v>
       </c>
       <c r="AM3">
         <v>-166.2935793222523</v>
@@ -3891,7 +3891,7 @@
         <v>160.6235536280259</v>
       </c>
       <c r="AO3">
-        <v>6.061248276881061E-13</v>
+        <v>6.016661792876152E-13</v>
       </c>
       <c r="AP3">
         <v>-166.2935793242505</v>
@@ -3941,40 +3941,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>-4.73695157176143E-15</v>
+        <v>2.368475785880644E-15</v>
       </c>
       <c r="O4">
-        <v>1.853178836122772E-10</v>
+        <v>1.853123234396558E-10</v>
       </c>
       <c r="P4">
-        <v>5.171528959112104E-10</v>
+        <v>5.171567754740062E-10</v>
       </c>
       <c r="Q4">
-        <v>2.368475785880766E-15</v>
+        <v>1.492289787069686E-28</v>
       </c>
       <c r="R4">
-        <v>-1.853178493912457E-10</v>
+        <v>-1.853136536359842E-10</v>
       </c>
       <c r="S4">
-        <v>-5.171575644740245E-10</v>
+        <v>-5.171542602752685E-10</v>
       </c>
       <c r="T4">
-        <v>-4.736951571761529E-15</v>
+        <v>9.473903143522986E-15</v>
       </c>
       <c r="U4">
-        <v>-1.611047716065382E-09</v>
+        <v>-1.611043145038056E-09</v>
       </c>
       <c r="V4">
-        <v>1.03629942668224E-09</v>
+        <v>1.036298062264881E-09</v>
       </c>
       <c r="W4">
-        <v>-2.368475785880715E-15</v>
+        <v>-1.421085471528444E-14</v>
       </c>
       <c r="X4">
-        <v>1.61105365154157E-09</v>
+        <v>1.611054674854593E-09</v>
       </c>
       <c r="Y4">
-        <v>-1.036306503567649E-09</v>
+        <v>-1.036303306213536E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -3998,22 +3998,22 @@
         <v>1.000000000005801</v>
       </c>
       <c r="AG4">
-        <v>0.6078088903513557</v>
+        <v>0.6078088903513565</v>
       </c>
       <c r="AH4">
-        <v>0.4340870104919983</v>
+        <v>0.434087010491999</v>
       </c>
       <c r="AI4">
         <v>1.000000000005801</v>
       </c>
       <c r="AJ4">
-        <v>0.6078088903608013</v>
+        <v>0.6078088903608025</v>
       </c>
       <c r="AK4">
-        <v>0.4340870104725135</v>
+        <v>0.4340870104725145</v>
       </c>
       <c r="AL4">
-        <v>5.955822512775178E-13</v>
+        <v>5.831458185787954E-13</v>
       </c>
       <c r="AM4">
         <v>-166.2935793222523</v>
@@ -4022,7 +4022,7 @@
         <v>160.6235536280259</v>
       </c>
       <c r="AO4">
-        <v>6.061248276881061E-13</v>
+        <v>6.016661792876152E-13</v>
       </c>
       <c r="AP4">
         <v>-166.2935793242505</v>
@@ -4216,40 +4216,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-4.736951571761456E-15</v>
+        <v>-2.842170943056872E-14</v>
       </c>
       <c r="O2">
-        <v>-5.559647705424282E-10</v>
+        <v>-5.559745606380389E-10</v>
       </c>
       <c r="P2">
-        <v>-1.551458687093985E-09</v>
+        <v>-1.551456171948554E-09</v>
       </c>
       <c r="Q2">
-        <v>2.36847578588074E-15</v>
+        <v>3.079018521644949E-14</v>
       </c>
       <c r="R2">
-        <v>5.559676023600634E-10</v>
+        <v>5.559773924556744E-10</v>
       </c>
       <c r="S2">
-        <v>1.551457898520399E-09</v>
+        <v>1.551456172428291E-09</v>
       </c>
       <c r="T2">
-        <v>-2.36847578588079E-15</v>
+        <v>-1.421085471528473E-14</v>
       </c>
       <c r="U2">
-        <v>4.833152290628798E-09</v>
+        <v>4.833149902898428E-09</v>
       </c>
       <c r="V2">
-        <v>-3.10889827966872E-09</v>
+        <v>-3.108903523648883E-09</v>
       </c>
       <c r="W2">
-        <v>2.505580672434495E-29</v>
+        <v>1.184237892940402E-14</v>
       </c>
       <c r="X2">
-        <v>-4.833145672691931E-09</v>
+        <v>-4.833143284961562E-09</v>
       </c>
       <c r="Y2">
-        <v>3.108889838617948E-09</v>
+        <v>3.108903523932379E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -4270,34 +4270,34 @@
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>1.000000000005801</v>
+        <v>1.0000000000058</v>
       </c>
       <c r="AG2">
-        <v>0.6078088903891387</v>
+        <v>0.6078088903891399</v>
       </c>
       <c r="AH2">
-        <v>0.4340870104140592</v>
+        <v>0.4340870104140604</v>
       </c>
       <c r="AI2">
         <v>1.000000000005801</v>
       </c>
       <c r="AJ2">
-        <v>0.6078088903608013</v>
+        <v>0.6078088903608025</v>
       </c>
       <c r="AK2">
-        <v>0.4340870104725135</v>
+        <v>0.4340870104725145</v>
       </c>
       <c r="AL2">
-        <v>5.970551300423147E-13</v>
+        <v>5.954435851240063E-13</v>
       </c>
       <c r="AM2">
         <v>-166.2935793302449</v>
       </c>
       <c r="AN2">
-        <v>160.6235536346805</v>
+        <v>160.6235536346806</v>
       </c>
       <c r="AO2">
-        <v>6.061248276881061E-13</v>
+        <v>6.016661792876152E-13</v>
       </c>
       <c r="AP2">
         <v>-166.2935793242505</v>
@@ -4347,40 +4347,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.184237892940377E-14</v>
+        <v>2.368475785880644E-15</v>
       </c>
       <c r="O3">
-        <v>1.853262067873465E-10</v>
+        <v>1.853123234396558E-10</v>
       </c>
       <c r="P3">
-        <v>5.171620194541603E-10</v>
+        <v>5.171567754740062E-10</v>
       </c>
       <c r="Q3">
-        <v>-1.184237892940375E-14</v>
+        <v>1.492289787069686E-28</v>
       </c>
       <c r="R3">
-        <v>-1.853261725663145E-10</v>
+        <v>-1.853136536359842E-10</v>
       </c>
       <c r="S3">
-        <v>-5.171575644740245E-10</v>
+        <v>-5.171542602752685E-10</v>
       </c>
       <c r="T3">
-        <v>-7.105427357642095E-15</v>
+        <v>9.473903143522986E-15</v>
       </c>
       <c r="U3">
-        <v>-1.611057540328719E-09</v>
+        <v>-1.611043145038056E-09</v>
       </c>
       <c r="V3">
-        <v>1.036300577410314E-09</v>
+        <v>1.036298062264881E-09</v>
       </c>
       <c r="W3">
-        <v>4.736951571761356E-15</v>
+        <v>-1.421085471528444E-14</v>
       </c>
       <c r="X3">
-        <v>1.611063475804907E-09</v>
+        <v>1.611054674854593E-09</v>
       </c>
       <c r="Y3">
-        <v>-1.036306503567649E-09</v>
+        <v>-1.036303306213536E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -4404,22 +4404,22 @@
         <v>1.000000000005801</v>
       </c>
       <c r="AG3">
-        <v>0.6078088903513558</v>
+        <v>0.6078088903513565</v>
       </c>
       <c r="AH3">
-        <v>0.4340870104919984</v>
+        <v>0.434087010491999</v>
       </c>
       <c r="AI3">
         <v>1.000000000005801</v>
       </c>
       <c r="AJ3">
-        <v>0.6078088903608013</v>
+        <v>0.6078088903608025</v>
       </c>
       <c r="AK3">
-        <v>0.4340870104725135</v>
+        <v>0.4340870104725145</v>
       </c>
       <c r="AL3">
-        <v>6.025079221054697E-13</v>
+        <v>5.831458185787954E-13</v>
       </c>
       <c r="AM3">
         <v>-166.2935793222523</v>
@@ -4428,7 +4428,7 @@
         <v>160.6235536280259</v>
       </c>
       <c r="AO3">
-        <v>6.061248276881061E-13</v>
+        <v>6.016661792876152E-13</v>
       </c>
       <c r="AP3">
         <v>-166.2935793242505</v>
@@ -4478,40 +4478,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>-4.73695157176143E-15</v>
+        <v>2.368475785880644E-15</v>
       </c>
       <c r="O4">
-        <v>1.853178836122772E-10</v>
+        <v>1.853123234396558E-10</v>
       </c>
       <c r="P4">
-        <v>5.171528959112104E-10</v>
+        <v>5.171567754740062E-10</v>
       </c>
       <c r="Q4">
-        <v>2.368475785880766E-15</v>
+        <v>1.492289787069686E-28</v>
       </c>
       <c r="R4">
-        <v>-1.853178493912457E-10</v>
+        <v>-1.853136536359842E-10</v>
       </c>
       <c r="S4">
-        <v>-5.171575644740245E-10</v>
+        <v>-5.171542602752685E-10</v>
       </c>
       <c r="T4">
-        <v>-4.736951571761529E-15</v>
+        <v>9.473903143522986E-15</v>
       </c>
       <c r="U4">
-        <v>-1.611047716065382E-09</v>
+        <v>-1.611043145038056E-09</v>
       </c>
       <c r="V4">
-        <v>1.03629942668224E-09</v>
+        <v>1.036298062264881E-09</v>
       </c>
       <c r="W4">
-        <v>-2.368475785880715E-15</v>
+        <v>-1.421085471528444E-14</v>
       </c>
       <c r="X4">
-        <v>1.61105365154157E-09</v>
+        <v>1.611054674854593E-09</v>
       </c>
       <c r="Y4">
-        <v>-1.036306503567649E-09</v>
+        <v>-1.036303306213536E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -4535,22 +4535,22 @@
         <v>1.000000000005801</v>
       </c>
       <c r="AG4">
-        <v>0.6078088903513557</v>
+        <v>0.6078088903513565</v>
       </c>
       <c r="AH4">
-        <v>0.4340870104919983</v>
+        <v>0.434087010491999</v>
       </c>
       <c r="AI4">
         <v>1.000000000005801</v>
       </c>
       <c r="AJ4">
-        <v>0.6078088903608013</v>
+        <v>0.6078088903608025</v>
       </c>
       <c r="AK4">
-        <v>0.4340870104725135</v>
+        <v>0.4340870104725145</v>
       </c>
       <c r="AL4">
-        <v>5.955822512775178E-13</v>
+        <v>5.831458185787954E-13</v>
       </c>
       <c r="AM4">
         <v>-166.2935793222523</v>
@@ -4559,7 +4559,7 @@
         <v>160.6235536280259</v>
       </c>
       <c r="AO4">
-        <v>6.061248276881061E-13</v>
+        <v>6.016661792876152E-13</v>
       </c>
       <c r="AP4">
         <v>-166.2935793242505</v>
@@ -4756,40 +4756,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.957781560702302E-09</v>
+        <v>-2.957778955378881E-09</v>
       </c>
       <c r="O2">
-        <v>-7.394846386949858E-10</v>
+        <v>-7.394769162516236E-10</v>
       </c>
       <c r="P2">
-        <v>-7.393878743358001E-10</v>
+        <v>-7.394168568801244E-10</v>
       </c>
       <c r="Q2">
-        <v>2.957780692514936E-09</v>
+        <v>2.95778199517665E-09</v>
       </c>
       <c r="R2">
-        <v>7.394692790451266E-10</v>
+        <v>7.394742258182311E-10</v>
       </c>
       <c r="S2">
-        <v>7.394014120568497E-10</v>
+        <v>7.394295261600329E-10</v>
       </c>
       <c r="T2">
-        <v>2.778925923274713E-14</v>
+        <v>1.823640669175075E-14</v>
       </c>
       <c r="U2">
-        <v>-3.842280366037172E-09</v>
+        <v>-3.842288871748258E-09</v>
       </c>
       <c r="V2">
-        <v>3.842263890287338E-09</v>
+        <v>3.842244273541751E-09</v>
       </c>
       <c r="W2">
-        <v>-1.736767760867438E-14</v>
+        <v>-1.563079532985458E-14</v>
       </c>
       <c r="X2">
-        <v>3.842285661929419E-09</v>
+        <v>3.842287049764546E-09</v>
       </c>
       <c r="Y2">
-        <v>-3.842261284891933E-09</v>
+        <v>-3.842237155593811E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -4810,34 +4810,34 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.3666666746541442</v>
+        <v>0.3666666746541445</v>
       </c>
       <c r="AH2">
-        <v>0.9701088351760903</v>
+        <v>0.9701088351760904</v>
       </c>
       <c r="AI2">
-        <v>0.9701088350717375</v>
+        <v>0.9701088350717377</v>
       </c>
       <c r="AJ2">
-        <v>0.366666674685604</v>
+        <v>0.3666666746856044</v>
       </c>
       <c r="AK2">
         <v>0.9701088351965892</v>
       </c>
       <c r="AL2">
-        <v>0.970108835057184</v>
+        <v>0.9701088350571846</v>
       </c>
       <c r="AM2">
-        <v>1.660615800821346E-08</v>
+        <v>1.660610612528425E-08</v>
       </c>
       <c r="AN2">
         <v>-100.8933946492836</v>
       </c>
       <c r="AO2">
-        <v>100.8933946504709</v>
+        <v>100.8933946504708</v>
       </c>
       <c r="AP2">
-        <v>2.21839221277475E-08</v>
+        <v>2.218387100697719E-08</v>
       </c>
       <c r="AQ2">
         <v>-100.8933946499967</v>
@@ -4887,40 +4887,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>9.859242922097519E-10</v>
+        <v>9.859199500040516E-10</v>
       </c>
       <c r="O3">
-        <v>2.464741104950735E-10</v>
+        <v>2.464809644972932E-10</v>
       </c>
       <c r="P3">
-        <v>2.464728078333881E-10</v>
+        <v>2.464747150625018E-10</v>
       </c>
       <c r="Q3">
-        <v>-9.859251606226942E-10</v>
+        <v>-9.859203841964263E-10</v>
       </c>
       <c r="R3">
-        <v>-2.464894702013287E-10</v>
+        <v>-2.464926800921531E-10</v>
       </c>
       <c r="S3">
-        <v>-2.464682952738038E-10</v>
+        <v>-2.464620458389879E-10</v>
       </c>
       <c r="T3">
-        <v>4.137257760532235E-19</v>
+        <v>-2.604909698222213E-15</v>
       </c>
       <c r="U3">
-        <v>1.280765678953885E-09</v>
+        <v>1.280752660690265E-09</v>
       </c>
       <c r="V3">
-        <v>-1.280758909918218E-09</v>
+        <v>-1.280744503819474E-09</v>
       </c>
       <c r="W3">
-        <v>-3.474146294859792E-15</v>
+        <v>5.210265112641484E-15</v>
       </c>
       <c r="X3">
-        <v>-1.280760383125627E-09</v>
+        <v>-1.280752745855683E-09</v>
       </c>
       <c r="Y3">
-        <v>1.280759778367358E-09</v>
+        <v>1.280751621703428E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -4941,25 +4941,25 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.3666666746960905</v>
+        <v>0.3666666746960908</v>
       </c>
       <c r="AH3">
         <v>0.9701088352034221</v>
       </c>
       <c r="AI3">
-        <v>0.9701088350523328</v>
+        <v>0.9701088350523335</v>
       </c>
       <c r="AJ3">
-        <v>0.366666674685604</v>
+        <v>0.3666666746856044</v>
       </c>
       <c r="AK3">
         <v>0.9701088351965892</v>
       </c>
       <c r="AL3">
-        <v>0.970108835057184</v>
+        <v>0.9701088350571846</v>
       </c>
       <c r="AM3">
-        <v>2.404316541434837E-08</v>
+        <v>2.404312648111907E-08</v>
       </c>
       <c r="AN3">
         <v>-100.8933946502344</v>
@@ -4968,7 +4968,7 @@
         <v>100.8933946519528</v>
       </c>
       <c r="AP3">
-        <v>2.21839221277475E-08</v>
+        <v>2.218387100697719E-08</v>
       </c>
       <c r="AQ3">
         <v>-100.8933946499967</v>
@@ -5018,40 +5018,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>9.859208184451897E-10</v>
+        <v>9.859199500040516E-10</v>
       </c>
       <c r="O4">
-        <v>2.464813987178638E-10</v>
+        <v>2.464809644972932E-10</v>
       </c>
       <c r="P4">
-        <v>2.464719393922477E-10</v>
+        <v>2.464747150625018E-10</v>
       </c>
       <c r="Q4">
-        <v>-9.859216868581351E-10</v>
+        <v>-9.859203841964263E-10</v>
       </c>
       <c r="R4">
-        <v>-2.464894702013287E-10</v>
+        <v>-2.464926800921531E-10</v>
       </c>
       <c r="S4">
-        <v>-2.464674268326634E-10</v>
+        <v>-2.464620458389879E-10</v>
       </c>
       <c r="T4">
-        <v>4.13724251583203E-19</v>
+        <v>-2.604909698222213E-15</v>
       </c>
       <c r="U4">
-        <v>1.280754916966533E-09</v>
+        <v>1.280752660690265E-09</v>
       </c>
       <c r="V4">
-        <v>-1.280754397365683E-09</v>
+        <v>-1.280744503819474E-09</v>
       </c>
       <c r="W4">
-        <v>3.473382830302995E-15</v>
+        <v>5.210265112641484E-15</v>
       </c>
       <c r="X4">
-        <v>-1.280760383125627E-09</v>
+        <v>-1.280752745855683E-09</v>
       </c>
       <c r="Y4">
-        <v>1.280755265814823E-09</v>
+        <v>1.280751621703428E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -5072,25 +5072,25 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.3666666746960904</v>
+        <v>0.3666666746960908</v>
       </c>
       <c r="AH4">
         <v>0.9701088352034221</v>
       </c>
       <c r="AI4">
-        <v>0.9701088350523329</v>
+        <v>0.9701088350523335</v>
       </c>
       <c r="AJ4">
-        <v>0.366666674685604</v>
+        <v>0.3666666746856044</v>
       </c>
       <c r="AK4">
         <v>0.9701088351965892</v>
       </c>
       <c r="AL4">
-        <v>0.970108835057184</v>
+        <v>0.9701088350571846</v>
       </c>
       <c r="AM4">
-        <v>2.404316153431854E-08</v>
+        <v>2.404312648111907E-08</v>
       </c>
       <c r="AN4">
         <v>-100.8933946502344</v>
@@ -5099,7 +5099,7 @@
         <v>100.8933946519528</v>
       </c>
       <c r="AP4">
-        <v>2.21839221277475E-08</v>
+        <v>2.218387100697719E-08</v>
       </c>
       <c r="AQ4">
         <v>-100.8933946499967</v>
@@ -5296,40 +5296,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.957781560702302E-09</v>
+        <v>-2.957778955378881E-09</v>
       </c>
       <c r="O2">
-        <v>-7.394846386949858E-10</v>
+        <v>-7.394769162516236E-10</v>
       </c>
       <c r="P2">
-        <v>-7.393878743358001E-10</v>
+        <v>-7.394168568801244E-10</v>
       </c>
       <c r="Q2">
-        <v>2.957780692514936E-09</v>
+        <v>2.95778199517665E-09</v>
       </c>
       <c r="R2">
-        <v>7.394692790451266E-10</v>
+        <v>7.394742258182311E-10</v>
       </c>
       <c r="S2">
-        <v>7.394014120568497E-10</v>
+        <v>7.394295261600329E-10</v>
       </c>
       <c r="T2">
-        <v>2.778925923274713E-14</v>
+        <v>1.823640669175075E-14</v>
       </c>
       <c r="U2">
-        <v>-3.842280366037172E-09</v>
+        <v>-3.842288871748258E-09</v>
       </c>
       <c r="V2">
-        <v>3.842263890287338E-09</v>
+        <v>3.842244273541751E-09</v>
       </c>
       <c r="W2">
-        <v>-1.736767760867438E-14</v>
+        <v>-1.563079532985458E-14</v>
       </c>
       <c r="X2">
-        <v>3.842285661929419E-09</v>
+        <v>3.842287049764546E-09</v>
       </c>
       <c r="Y2">
-        <v>-3.842261284891933E-09</v>
+        <v>-3.842237155593811E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -5350,34 +5350,34 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.3666666746541442</v>
+        <v>0.3666666746541445</v>
       </c>
       <c r="AH2">
-        <v>0.9701088351760903</v>
+        <v>0.9701088351760904</v>
       </c>
       <c r="AI2">
-        <v>0.9701088350717375</v>
+        <v>0.9701088350717377</v>
       </c>
       <c r="AJ2">
-        <v>0.366666674685604</v>
+        <v>0.3666666746856044</v>
       </c>
       <c r="AK2">
         <v>0.9701088351965892</v>
       </c>
       <c r="AL2">
-        <v>0.970108835057184</v>
+        <v>0.9701088350571846</v>
       </c>
       <c r="AM2">
-        <v>1.660615800821346E-08</v>
+        <v>1.660610612528425E-08</v>
       </c>
       <c r="AN2">
         <v>-100.8933946492836</v>
       </c>
       <c r="AO2">
-        <v>100.8933946504709</v>
+        <v>100.8933946504708</v>
       </c>
       <c r="AP2">
-        <v>2.21839221277475E-08</v>
+        <v>2.218387100697719E-08</v>
       </c>
       <c r="AQ2">
         <v>-100.8933946499967</v>
@@ -5427,40 +5427,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>9.859242922097519E-10</v>
+        <v>9.859199500040516E-10</v>
       </c>
       <c r="O3">
-        <v>2.464741104950735E-10</v>
+        <v>2.464809644972932E-10</v>
       </c>
       <c r="P3">
-        <v>2.464728078333881E-10</v>
+        <v>2.464747150625018E-10</v>
       </c>
       <c r="Q3">
-        <v>-9.859251606226942E-10</v>
+        <v>-9.859203841964263E-10</v>
       </c>
       <c r="R3">
-        <v>-2.464894702013287E-10</v>
+        <v>-2.464926800921531E-10</v>
       </c>
       <c r="S3">
-        <v>-2.464682952738038E-10</v>
+        <v>-2.464620458389879E-10</v>
       </c>
       <c r="T3">
-        <v>4.137257760532235E-19</v>
+        <v>-2.604909698222213E-15</v>
       </c>
       <c r="U3">
-        <v>1.280765678953885E-09</v>
+        <v>1.280752660690265E-09</v>
       </c>
       <c r="V3">
-        <v>-1.280758909918218E-09</v>
+        <v>-1.280744503819474E-09</v>
       </c>
       <c r="W3">
-        <v>-3.474146294859792E-15</v>
+        <v>5.210265112641484E-15</v>
       </c>
       <c r="X3">
-        <v>-1.280760383125627E-09</v>
+        <v>-1.280752745855683E-09</v>
       </c>
       <c r="Y3">
-        <v>1.280759778367358E-09</v>
+        <v>1.280751621703428E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -5481,25 +5481,25 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.3666666746960905</v>
+        <v>0.3666666746960908</v>
       </c>
       <c r="AH3">
         <v>0.9701088352034221</v>
       </c>
       <c r="AI3">
-        <v>0.9701088350523328</v>
+        <v>0.9701088350523335</v>
       </c>
       <c r="AJ3">
-        <v>0.366666674685604</v>
+        <v>0.3666666746856044</v>
       </c>
       <c r="AK3">
         <v>0.9701088351965892</v>
       </c>
       <c r="AL3">
-        <v>0.970108835057184</v>
+        <v>0.9701088350571846</v>
       </c>
       <c r="AM3">
-        <v>2.404316541434837E-08</v>
+        <v>2.404312648111907E-08</v>
       </c>
       <c r="AN3">
         <v>-100.8933946502344</v>
@@ -5508,7 +5508,7 @@
         <v>100.8933946519528</v>
       </c>
       <c r="AP3">
-        <v>2.21839221277475E-08</v>
+        <v>2.218387100697719E-08</v>
       </c>
       <c r="AQ3">
         <v>-100.8933946499967</v>
@@ -5558,40 +5558,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>9.859208184451897E-10</v>
+        <v>9.859199500040516E-10</v>
       </c>
       <c r="O4">
-        <v>2.464813987178638E-10</v>
+        <v>2.464809644972932E-10</v>
       </c>
       <c r="P4">
-        <v>2.464719393922477E-10</v>
+        <v>2.464747150625018E-10</v>
       </c>
       <c r="Q4">
-        <v>-9.859216868581351E-10</v>
+        <v>-9.859203841964263E-10</v>
       </c>
       <c r="R4">
-        <v>-2.464894702013287E-10</v>
+        <v>-2.464926800921531E-10</v>
       </c>
       <c r="S4">
-        <v>-2.464674268326634E-10</v>
+        <v>-2.464620458389879E-10</v>
       </c>
       <c r="T4">
-        <v>4.13724251583203E-19</v>
+        <v>-2.604909698222213E-15</v>
       </c>
       <c r="U4">
-        <v>1.280754916966533E-09</v>
+        <v>1.280752660690265E-09</v>
       </c>
       <c r="V4">
-        <v>-1.280754397365683E-09</v>
+        <v>-1.280744503819474E-09</v>
       </c>
       <c r="W4">
-        <v>3.473382830302995E-15</v>
+        <v>5.210265112641484E-15</v>
       </c>
       <c r="X4">
-        <v>-1.280760383125627E-09</v>
+        <v>-1.280752745855683E-09</v>
       </c>
       <c r="Y4">
-        <v>1.280755265814823E-09</v>
+        <v>1.280751621703428E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -5612,25 +5612,25 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.3666666746960904</v>
+        <v>0.3666666746960908</v>
       </c>
       <c r="AH4">
         <v>0.9701088352034221</v>
       </c>
       <c r="AI4">
-        <v>0.9701088350523329</v>
+        <v>0.9701088350523335</v>
       </c>
       <c r="AJ4">
-        <v>0.366666674685604</v>
+        <v>0.3666666746856044</v>
       </c>
       <c r="AK4">
         <v>0.9701088351965892</v>
       </c>
       <c r="AL4">
-        <v>0.970108835057184</v>
+        <v>0.9701088350571846</v>
       </c>
       <c r="AM4">
-        <v>2.404316153431854E-08</v>
+        <v>2.404312648111907E-08</v>
       </c>
       <c r="AN4">
         <v>-100.8933946502344</v>
@@ -5639,7 +5639,7 @@
         <v>100.8933946519528</v>
       </c>
       <c r="AP4">
-        <v>2.21839221277475E-08</v>
+        <v>2.218387100697719E-08</v>
       </c>
       <c r="AQ4">
         <v>-100.8933946499967</v>
@@ -5836,40 +5836,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-3.138983601855953E-09</v>
+        <v>-3.138986543308318E-09</v>
       </c>
       <c r="O2">
-        <v>-1.398955483859004E-09</v>
+        <v>-1.39894955705634E-09</v>
       </c>
       <c r="P2">
-        <v>-1.7054019225198E-10</v>
+        <v>-1.705526358106355E-10</v>
       </c>
       <c r="Q2">
-        <v>3.138990475336461E-09</v>
+        <v>3.138986404610078E-09</v>
       </c>
       <c r="R2">
-        <v>1.398953726607291E-09</v>
+        <v>1.398943139320077E-09</v>
       </c>
       <c r="S2">
-        <v>1.705377971870336E-10</v>
+        <v>1.705603074356288E-10</v>
       </c>
       <c r="T2">
-        <v>1.418410542707577E-09</v>
+        <v>1.418399155907755E-09</v>
       </c>
       <c r="U2">
-        <v>-2.221742064668878E-09</v>
+        <v>-2.221755893536337E-09</v>
       </c>
       <c r="V2">
-        <v>2.930933325822876E-09</v>
+        <v>2.930913912794162E-09</v>
       </c>
       <c r="W2">
-        <v>-1.418405890312036E-09</v>
+        <v>-1.418399876122104E-09</v>
       </c>
       <c r="X2">
-        <v>2.221743843782969E-09</v>
+        <v>2.221747445538798E-09</v>
       </c>
       <c r="Y2">
-        <v>-2.930934046139837E-09</v>
+        <v>-2.930922052437997E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -5890,34 +5890,34 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.6194744497695825</v>
+        <v>0.6194744497695827</v>
       </c>
       <c r="AH2">
-        <v>0.9443347709443496</v>
+        <v>0.9443347709443498</v>
       </c>
       <c r="AI2">
         <v>1.05598589769414</v>
       </c>
       <c r="AJ2">
-        <v>0.6194744497792126</v>
+        <v>0.6194744497792128</v>
       </c>
       <c r="AK2">
-        <v>0.944334770960538</v>
+        <v>0.9443347709605381</v>
       </c>
       <c r="AL2">
         <v>1.055985897682488</v>
       </c>
       <c r="AM2">
-        <v>-10.9077501785047</v>
+        <v>-10.90775017850473</v>
       </c>
       <c r="AN2">
-        <v>-108.7881138042144</v>
+        <v>-108.7881138042143</v>
       </c>
       <c r="AO2">
         <v>106.7392371168768</v>
       </c>
       <c r="AP2">
-        <v>-10.90775017560493</v>
+        <v>-10.90775017560495</v>
       </c>
       <c r="AQ2">
         <v>-108.7881138043733</v>
@@ -5967,40 +5967,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.046323400171952E-09</v>
+        <v>1.046322679820787E-09</v>
       </c>
       <c r="O3">
-        <v>4.663029666118201E-10</v>
+        <v>4.663075399042611E-10</v>
       </c>
       <c r="P3">
-        <v>5.684336912528559E-11</v>
+        <v>5.685822600541098E-11</v>
       </c>
       <c r="Q3">
-        <v>-1.046321179057355E-09</v>
+        <v>-1.046328581435538E-09</v>
       </c>
       <c r="R3">
-        <v>-4.663018424856683E-10</v>
+        <v>-4.66316751879875E-10</v>
       </c>
       <c r="S3">
-        <v>-5.683762453898937E-11</v>
+        <v>-5.685343581187629E-11</v>
       </c>
       <c r="T3">
-        <v>-4.727956803469071E-10</v>
+        <v>-4.727955415280825E-10</v>
       </c>
       <c r="U3">
-        <v>7.405859708133753E-10</v>
+        <v>7.40582052478019E-10</v>
       </c>
       <c r="V3">
-        <v>-9.769665981486579E-10</v>
+        <v>-9.769725767732006E-10</v>
       </c>
       <c r="W3">
-        <v>4.728072059807578E-10</v>
+        <v>4.727959317427185E-10</v>
       </c>
       <c r="X3">
-        <v>-7.405757218999171E-10</v>
+        <v>-7.405848248887459E-10</v>
       </c>
       <c r="Y3">
-        <v>9.769735493961402E-10</v>
+        <v>9.769740174793324E-10</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -6021,7 +6021,7 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.6194744497824225</v>
+        <v>0.6194744497824228</v>
       </c>
       <c r="AH3">
         <v>0.9443347709659341</v>
@@ -6030,16 +6030,16 @@
         <v>1.055985897678604</v>
       </c>
       <c r="AJ3">
-        <v>0.6194744497792126</v>
+        <v>0.6194744497792128</v>
       </c>
       <c r="AK3">
-        <v>0.944334770960538</v>
+        <v>0.9443347709605381</v>
       </c>
       <c r="AL3">
         <v>1.055985897682488</v>
       </c>
       <c r="AM3">
-        <v>-10.90775017463835</v>
+        <v>-10.90775017463836</v>
       </c>
       <c r="AN3">
         <v>-108.7881138044263</v>
@@ -6048,7 +6048,7 @@
         <v>106.7392371177116</v>
       </c>
       <c r="AP3">
-        <v>-10.90775017560493</v>
+        <v>-10.90775017560495</v>
       </c>
       <c r="AQ3">
         <v>-108.7881138043733</v>
@@ -6098,40 +6098,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.046330273531876E-09</v>
+        <v>1.046322679820787E-09</v>
       </c>
       <c r="O4">
-        <v>4.663058480164823E-10</v>
+        <v>4.663075399042611E-10</v>
       </c>
       <c r="P4">
-        <v>5.686206180283466E-11</v>
+        <v>5.685822600541098E-11</v>
       </c>
       <c r="Q4">
-        <v>-1.046329162967879E-09</v>
+        <v>-1.046328581435538E-09</v>
       </c>
       <c r="R4">
-        <v>-4.663047238903305E-10</v>
+        <v>-4.66316751879875E-10</v>
       </c>
       <c r="S4">
-        <v>-5.685678529973027E-11</v>
+        <v>-5.685343581187629E-11</v>
       </c>
       <c r="T4">
-        <v>-4.727910280881822E-10</v>
+        <v>-4.727955415280825E-10</v>
       </c>
       <c r="U4">
-        <v>7.405944406431464E-10</v>
+        <v>7.40582052478019E-10</v>
       </c>
       <c r="V4">
-        <v>-9.769766466122202E-10</v>
+        <v>-9.769725767732006E-10</v>
       </c>
       <c r="W4">
-        <v>4.727967909127084E-10</v>
+        <v>4.727959317427185E-10</v>
       </c>
       <c r="X4">
-        <v>-7.405841917296879E-10</v>
+        <v>-7.405848248887459E-10</v>
       </c>
       <c r="Y4">
-        <v>9.769677865868159E-10</v>
+        <v>9.769740174793324E-10</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -6152,7 +6152,7 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.6194744497824225</v>
+        <v>0.6194744497824228</v>
       </c>
       <c r="AH4">
         <v>0.9443347709659341</v>
@@ -6161,16 +6161,16 @@
         <v>1.055985897678604</v>
       </c>
       <c r="AJ4">
-        <v>0.6194744497792126</v>
+        <v>0.6194744497792128</v>
       </c>
       <c r="AK4">
-        <v>0.944334770960538</v>
+        <v>0.9443347709605381</v>
       </c>
       <c r="AL4">
         <v>1.055985897682488</v>
       </c>
       <c r="AM4">
-        <v>-10.90775017463835</v>
+        <v>-10.90775017463836</v>
       </c>
       <c r="AN4">
         <v>-108.7881138044263</v>
@@ -6179,7 +6179,7 @@
         <v>106.7392371177116</v>
       </c>
       <c r="AP4">
-        <v>-10.90775017560493</v>
+        <v>-10.90775017560495</v>
       </c>
       <c r="AQ4">
         <v>-108.7881138043733</v>
@@ -6601,40 +6601,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-3.138983601855953E-09</v>
+        <v>-3.138986543308318E-09</v>
       </c>
       <c r="O2">
-        <v>-1.398955483859004E-09</v>
+        <v>-1.39894955705634E-09</v>
       </c>
       <c r="P2">
-        <v>-1.7054019225198E-10</v>
+        <v>-1.705526358106355E-10</v>
       </c>
       <c r="Q2">
-        <v>3.138990475336461E-09</v>
+        <v>3.138986404610078E-09</v>
       </c>
       <c r="R2">
-        <v>1.398953726607291E-09</v>
+        <v>1.398943139320077E-09</v>
       </c>
       <c r="S2">
-        <v>1.705377971870336E-10</v>
+        <v>1.705603074356288E-10</v>
       </c>
       <c r="T2">
-        <v>1.418410542707577E-09</v>
+        <v>1.418399155907755E-09</v>
       </c>
       <c r="U2">
-        <v>-2.221742064668878E-09</v>
+        <v>-2.221755893536337E-09</v>
       </c>
       <c r="V2">
-        <v>2.930933325822876E-09</v>
+        <v>2.930913912794162E-09</v>
       </c>
       <c r="W2">
-        <v>-1.418405890312036E-09</v>
+        <v>-1.418399876122104E-09</v>
       </c>
       <c r="X2">
-        <v>2.221743843782969E-09</v>
+        <v>2.221747445538798E-09</v>
       </c>
       <c r="Y2">
-        <v>-2.930934046139837E-09</v>
+        <v>-2.930922052437997E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -6655,34 +6655,34 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.6194744497695825</v>
+        <v>0.6194744497695827</v>
       </c>
       <c r="AH2">
-        <v>0.9443347709443496</v>
+        <v>0.9443347709443498</v>
       </c>
       <c r="AI2">
         <v>1.05598589769414</v>
       </c>
       <c r="AJ2">
-        <v>0.6194744497792126</v>
+        <v>0.6194744497792128</v>
       </c>
       <c r="AK2">
-        <v>0.944334770960538</v>
+        <v>0.9443347709605381</v>
       </c>
       <c r="AL2">
         <v>1.055985897682488</v>
       </c>
       <c r="AM2">
-        <v>-10.9077501785047</v>
+        <v>-10.90775017850473</v>
       </c>
       <c r="AN2">
-        <v>-108.7881138042144</v>
+        <v>-108.7881138042143</v>
       </c>
       <c r="AO2">
         <v>106.7392371168768</v>
       </c>
       <c r="AP2">
-        <v>-10.90775017560493</v>
+        <v>-10.90775017560495</v>
       </c>
       <c r="AQ2">
         <v>-108.7881138043733</v>
@@ -6732,40 +6732,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.046323400171952E-09</v>
+        <v>1.046322679820787E-09</v>
       </c>
       <c r="O3">
-        <v>4.663029666118201E-10</v>
+        <v>4.663075399042611E-10</v>
       </c>
       <c r="P3">
-        <v>5.684336912528559E-11</v>
+        <v>5.685822600541098E-11</v>
       </c>
       <c r="Q3">
-        <v>-1.046321179057355E-09</v>
+        <v>-1.046328581435538E-09</v>
       </c>
       <c r="R3">
-        <v>-4.663018424856683E-10</v>
+        <v>-4.66316751879875E-10</v>
       </c>
       <c r="S3">
-        <v>-5.683762453898937E-11</v>
+        <v>-5.685343581187629E-11</v>
       </c>
       <c r="T3">
-        <v>-4.727956803469071E-10</v>
+        <v>-4.727955415280825E-10</v>
       </c>
       <c r="U3">
-        <v>7.405859708133753E-10</v>
+        <v>7.40582052478019E-10</v>
       </c>
       <c r="V3">
-        <v>-9.769665981486579E-10</v>
+        <v>-9.769725767732006E-10</v>
       </c>
       <c r="W3">
-        <v>4.728072059807578E-10</v>
+        <v>4.727959317427185E-10</v>
       </c>
       <c r="X3">
-        <v>-7.405757218999171E-10</v>
+        <v>-7.405848248887459E-10</v>
       </c>
       <c r="Y3">
-        <v>9.769735493961402E-10</v>
+        <v>9.769740174793324E-10</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -6786,7 +6786,7 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.6194744497824225</v>
+        <v>0.6194744497824228</v>
       </c>
       <c r="AH3">
         <v>0.9443347709659341</v>
@@ -6795,16 +6795,16 @@
         <v>1.055985897678604</v>
       </c>
       <c r="AJ3">
-        <v>0.6194744497792126</v>
+        <v>0.6194744497792128</v>
       </c>
       <c r="AK3">
-        <v>0.944334770960538</v>
+        <v>0.9443347709605381</v>
       </c>
       <c r="AL3">
         <v>1.055985897682488</v>
       </c>
       <c r="AM3">
-        <v>-10.90775017463835</v>
+        <v>-10.90775017463836</v>
       </c>
       <c r="AN3">
         <v>-108.7881138044263</v>
@@ -6813,7 +6813,7 @@
         <v>106.7392371177116</v>
       </c>
       <c r="AP3">
-        <v>-10.90775017560493</v>
+        <v>-10.90775017560495</v>
       </c>
       <c r="AQ3">
         <v>-108.7881138043733</v>
@@ -6863,40 +6863,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.046330273531876E-09</v>
+        <v>1.046322679820787E-09</v>
       </c>
       <c r="O4">
-        <v>4.663058480164823E-10</v>
+        <v>4.663075399042611E-10</v>
       </c>
       <c r="P4">
-        <v>5.686206180283466E-11</v>
+        <v>5.685822600541098E-11</v>
       </c>
       <c r="Q4">
-        <v>-1.046329162967879E-09</v>
+        <v>-1.046328581435538E-09</v>
       </c>
       <c r="R4">
-        <v>-4.663047238903305E-10</v>
+        <v>-4.66316751879875E-10</v>
       </c>
       <c r="S4">
-        <v>-5.685678529973027E-11</v>
+        <v>-5.685343581187629E-11</v>
       </c>
       <c r="T4">
-        <v>-4.727910280881822E-10</v>
+        <v>-4.727955415280825E-10</v>
       </c>
       <c r="U4">
-        <v>7.405944406431464E-10</v>
+        <v>7.40582052478019E-10</v>
       </c>
       <c r="V4">
-        <v>-9.769766466122202E-10</v>
+        <v>-9.769725767732006E-10</v>
       </c>
       <c r="W4">
-        <v>4.727967909127084E-10</v>
+        <v>4.727959317427185E-10</v>
       </c>
       <c r="X4">
-        <v>-7.405841917296879E-10</v>
+        <v>-7.405848248887459E-10</v>
       </c>
       <c r="Y4">
-        <v>9.769677865868159E-10</v>
+        <v>9.769740174793324E-10</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -6917,7 +6917,7 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.6194744497824225</v>
+        <v>0.6194744497824228</v>
       </c>
       <c r="AH4">
         <v>0.9443347709659341</v>
@@ -6926,16 +6926,16 @@
         <v>1.055985897678604</v>
       </c>
       <c r="AJ4">
-        <v>0.6194744497792126</v>
+        <v>0.6194744497792128</v>
       </c>
       <c r="AK4">
-        <v>0.944334770960538</v>
+        <v>0.9443347709605381</v>
       </c>
       <c r="AL4">
         <v>1.055985897682488</v>
       </c>
       <c r="AM4">
-        <v>-10.90775017463835</v>
+        <v>-10.90775017463836</v>
       </c>
       <c r="AN4">
         <v>-108.7881138044263</v>
@@ -6944,7 +6944,7 @@
         <v>106.7392371177116</v>
       </c>
       <c r="AP4">
-        <v>-10.90775017560493</v>
+        <v>-10.90775017560495</v>
       </c>
       <c r="AQ4">
         <v>-108.7881138043733</v>
@@ -7141,40 +7141,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.444431225317784E-09</v>
+        <v>-2.444438725491104E-09</v>
       </c>
       <c r="O2">
-        <v>-6.11088796280935E-10</v>
+        <v>-6.11099957719423E-10</v>
       </c>
       <c r="P2">
-        <v>-6.111103296660396E-10</v>
+        <v>-6.111175899541539E-10</v>
       </c>
       <c r="Q2">
-        <v>2.444431620466432E-09</v>
+        <v>2.444436357418004E-09</v>
       </c>
       <c r="R2">
-        <v>6.110900580498777E-10</v>
+        <v>6.111046522594388E-10</v>
       </c>
       <c r="S2">
-        <v>6.111115914349807E-10</v>
+        <v>6.111168005628967E-10</v>
       </c>
       <c r="T2">
-        <v>-2.368829968033706E-15</v>
+        <v>-3.158321900753253E-15</v>
       </c>
       <c r="U2">
-        <v>-3.175432111141399E-09</v>
+        <v>-3.175418263911536E-09</v>
       </c>
       <c r="V2">
-        <v>3.175400314184181E-09</v>
+        <v>3.175415933973841E-09</v>
       </c>
       <c r="W2">
-        <v>7.900840763137196E-16</v>
+        <v>3.15855986611417E-15</v>
       </c>
       <c r="X2">
-        <v>3.175427614134528E-09</v>
+        <v>3.175420551219397E-09</v>
       </c>
       <c r="Y2">
-        <v>-3.175395817058329E-09</v>
+        <v>-3.175411831593953E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -7195,25 +7195,25 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.3333333333308632</v>
+        <v>0.333333333330863</v>
       </c>
       <c r="AH2">
-        <v>0.8819171037085276</v>
+        <v>0.8819171037085272</v>
       </c>
       <c r="AI2">
-        <v>0.881917103661101</v>
+        <v>0.8819171036611009</v>
       </c>
       <c r="AJ2">
-        <v>0.3333333333857749</v>
+        <v>0.333333333385775</v>
       </c>
       <c r="AK2">
-        <v>0.8819171037296485</v>
+        <v>0.8819171037296482</v>
       </c>
       <c r="AL2">
-        <v>0.8819171036503575</v>
+        <v>0.8819171036503574</v>
       </c>
       <c r="AM2">
-        <v>8.301785759576047E-09</v>
+        <v>8.301856460280419E-09</v>
       </c>
       <c r="AN2">
         <v>-100.8933946487909</v>
@@ -7222,7 +7222,7 @@
         <v>100.8933946493849</v>
       </c>
       <c r="AP2">
-        <v>1.387952772508363E-08</v>
+        <v>1.387958429182639E-08</v>
       </c>
       <c r="AQ2">
         <v>-100.8933946503433</v>
@@ -7272,40 +7272,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>8.148125139300421E-10</v>
+        <v>8.148144876598646E-10</v>
       </c>
       <c r="O3">
-        <v>2.037030510521331E-10</v>
+        <v>2.037109770925289E-10</v>
       </c>
       <c r="P3">
-        <v>2.037081751556076E-10</v>
+        <v>2.037100714550538E-10</v>
       </c>
       <c r="Q3">
-        <v>-8.148089611716193E-10</v>
+        <v>-8.148136981231921E-10</v>
       </c>
       <c r="R3">
-        <v>-2.03698159228621E-10</v>
+        <v>-2.037050209737291E-10</v>
       </c>
       <c r="S3">
-        <v>-2.037081751444227E-10</v>
+        <v>-2.037121226040672E-10</v>
       </c>
       <c r="T3">
-        <v>7.897157533262182E-16</v>
+        <v>2.238253332076382E-19</v>
       </c>
       <c r="U3">
-        <v>1.058483154951664E-09</v>
+        <v>1.05846354898717E-09</v>
       </c>
       <c r="V3">
-        <v>-1.058454516027346E-09</v>
+        <v>-1.058475422375297E-09</v>
       </c>
       <c r="W3">
-        <v>-2.368673168379515E-15</v>
+        <v>-1.579181241584917E-15</v>
       </c>
       <c r="X3">
-        <v>-1.058479842116586E-09</v>
+        <v>-1.058465758798552E-09</v>
       </c>
       <c r="Y3">
-        <v>1.058454516033956E-09</v>
+        <v>1.058475027635942E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -7326,25 +7326,25 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.333333333404079</v>
+        <v>0.3333333334040791</v>
       </c>
       <c r="AH3">
-        <v>0.8819171037366886</v>
+        <v>0.8819171037366885</v>
       </c>
       <c r="AI3">
-        <v>0.8819171036467766</v>
+        <v>0.881917103646776</v>
       </c>
       <c r="AJ3">
-        <v>0.3333333333857749</v>
+        <v>0.333333333385775</v>
       </c>
       <c r="AK3">
-        <v>0.8819171037296485</v>
+        <v>0.8819171037296482</v>
       </c>
       <c r="AL3">
-        <v>0.8819171036503575</v>
+        <v>0.8819171036503574</v>
       </c>
       <c r="AM3">
-        <v>1.573883692711622E-08</v>
+        <v>1.573885483766686E-08</v>
       </c>
       <c r="AN3">
         <v>-100.8933946508607</v>
@@ -7353,7 +7353,7 @@
         <v>100.8933946519859</v>
       </c>
       <c r="AP3">
-        <v>1.387952772508363E-08</v>
+        <v>1.387958429182639E-08</v>
       </c>
       <c r="AQ3">
         <v>-100.8933946503433</v>
@@ -7403,40 +7403,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>8.148125139300421E-10</v>
+        <v>8.148144876598646E-10</v>
       </c>
       <c r="O4">
-        <v>2.036950012720912E-10</v>
+        <v>2.037109770925289E-10</v>
       </c>
       <c r="P4">
-        <v>2.037072308029256E-10</v>
+        <v>2.037100714550538E-10</v>
       </c>
       <c r="Q4">
-        <v>-8.148121191393341E-10</v>
+        <v>-8.148136981231921E-10</v>
       </c>
       <c r="R4">
-        <v>-2.036942117689772E-10</v>
+        <v>-2.037050209737291E-10</v>
       </c>
       <c r="S4">
-        <v>-2.037051796315415E-10</v>
+        <v>-2.037121226040672E-10</v>
       </c>
       <c r="T4">
-        <v>7.897157533085495E-16</v>
+        <v>2.238253332076382E-19</v>
       </c>
       <c r="U4">
-        <v>1.058463432841604E-09</v>
+        <v>1.05846354898717E-09</v>
       </c>
       <c r="V4">
-        <v>-1.058471714800864E-09</v>
+        <v>-1.058475422375297E-09</v>
       </c>
       <c r="W4">
-        <v>-2.368673169144512E-15</v>
+        <v>-1.579181241584917E-15</v>
       </c>
       <c r="X4">
-        <v>-1.058459330514597E-09</v>
+        <v>-1.058465758798552E-09</v>
       </c>
       <c r="Y4">
-        <v>1.058472109553439E-09</v>
+        <v>1.058475027635942E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -7457,25 +7457,25 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.333333333404079</v>
+        <v>0.3333333334040791</v>
       </c>
       <c r="AH4">
-        <v>0.8819171037366886</v>
+        <v>0.8819171037366885</v>
       </c>
       <c r="AI4">
-        <v>0.8819171036467764</v>
+        <v>0.881917103646776</v>
       </c>
       <c r="AJ4">
-        <v>0.3333333333857749</v>
+        <v>0.333333333385775</v>
       </c>
       <c r="AK4">
-        <v>0.8819171037296485</v>
+        <v>0.8819171037296482</v>
       </c>
       <c r="AL4">
-        <v>0.8819171036503575</v>
+        <v>0.8819171036503574</v>
       </c>
       <c r="AM4">
-        <v>1.573883568467597E-08</v>
+        <v>1.573885483766686E-08</v>
       </c>
       <c r="AN4">
         <v>-100.8933946508607</v>
@@ -7484,7 +7484,7 @@
         <v>100.8933946519859</v>
       </c>
       <c r="AP4">
-        <v>1.387952772508363E-08</v>
+        <v>1.387958429182639E-08</v>
       </c>
       <c r="AQ4">
         <v>-100.8933946503433</v>
@@ -7681,40 +7681,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.444431225317784E-09</v>
+        <v>-2.444438725491104E-09</v>
       </c>
       <c r="O2">
-        <v>-6.11088796280935E-10</v>
+        <v>-6.11099957719423E-10</v>
       </c>
       <c r="P2">
-        <v>-6.111103296660396E-10</v>
+        <v>-6.111175899541539E-10</v>
       </c>
       <c r="Q2">
-        <v>2.444431620466432E-09</v>
+        <v>2.444436357418004E-09</v>
       </c>
       <c r="R2">
-        <v>6.110900580498777E-10</v>
+        <v>6.111046522594388E-10</v>
       </c>
       <c r="S2">
-        <v>6.111115914349807E-10</v>
+        <v>6.111168005628967E-10</v>
       </c>
       <c r="T2">
-        <v>-2.368829968033706E-15</v>
+        <v>-3.158321900753253E-15</v>
       </c>
       <c r="U2">
-        <v>-3.175432111141399E-09</v>
+        <v>-3.175418263911536E-09</v>
       </c>
       <c r="V2">
-        <v>3.175400314184181E-09</v>
+        <v>3.175415933973841E-09</v>
       </c>
       <c r="W2">
-        <v>7.900840763137196E-16</v>
+        <v>3.15855986611417E-15</v>
       </c>
       <c r="X2">
-        <v>3.175427614134528E-09</v>
+        <v>3.175420551219397E-09</v>
       </c>
       <c r="Y2">
-        <v>-3.175395817058329E-09</v>
+        <v>-3.175411831593953E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -7735,25 +7735,25 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.3333333333308632</v>
+        <v>0.333333333330863</v>
       </c>
       <c r="AH2">
-        <v>0.8819171037085276</v>
+        <v>0.8819171037085272</v>
       </c>
       <c r="AI2">
-        <v>0.881917103661101</v>
+        <v>0.8819171036611009</v>
       </c>
       <c r="AJ2">
-        <v>0.3333333333857749</v>
+        <v>0.333333333385775</v>
       </c>
       <c r="AK2">
-        <v>0.8819171037296485</v>
+        <v>0.8819171037296482</v>
       </c>
       <c r="AL2">
-        <v>0.8819171036503575</v>
+        <v>0.8819171036503574</v>
       </c>
       <c r="AM2">
-        <v>8.301785759576047E-09</v>
+        <v>8.301856460280419E-09</v>
       </c>
       <c r="AN2">
         <v>-100.8933946487909</v>
@@ -7762,7 +7762,7 @@
         <v>100.8933946493849</v>
       </c>
       <c r="AP2">
-        <v>1.387952772508363E-08</v>
+        <v>1.387958429182639E-08</v>
       </c>
       <c r="AQ2">
         <v>-100.8933946503433</v>
@@ -7812,40 +7812,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>8.148125139300421E-10</v>
+        <v>8.148144876598646E-10</v>
       </c>
       <c r="O3">
-        <v>2.037030510521331E-10</v>
+        <v>2.037109770925289E-10</v>
       </c>
       <c r="P3">
-        <v>2.037081751556076E-10</v>
+        <v>2.037100714550538E-10</v>
       </c>
       <c r="Q3">
-        <v>-8.148089611716193E-10</v>
+        <v>-8.148136981231921E-10</v>
       </c>
       <c r="R3">
-        <v>-2.03698159228621E-10</v>
+        <v>-2.037050209737291E-10</v>
       </c>
       <c r="S3">
-        <v>-2.037081751444227E-10</v>
+        <v>-2.037121226040672E-10</v>
       </c>
       <c r="T3">
-        <v>7.897157533262182E-16</v>
+        <v>2.238253332076382E-19</v>
       </c>
       <c r="U3">
-        <v>1.058483154951664E-09</v>
+        <v>1.05846354898717E-09</v>
       </c>
       <c r="V3">
-        <v>-1.058454516027346E-09</v>
+        <v>-1.058475422375297E-09</v>
       </c>
       <c r="W3">
-        <v>-2.368673168379515E-15</v>
+        <v>-1.579181241584917E-15</v>
       </c>
       <c r="X3">
-        <v>-1.058479842116586E-09</v>
+        <v>-1.058465758798552E-09</v>
       </c>
       <c r="Y3">
-        <v>1.058454516033956E-09</v>
+        <v>1.058475027635942E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -7866,25 +7866,25 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.333333333404079</v>
+        <v>0.3333333334040791</v>
       </c>
       <c r="AH3">
-        <v>0.8819171037366886</v>
+        <v>0.8819171037366885</v>
       </c>
       <c r="AI3">
-        <v>0.8819171036467766</v>
+        <v>0.881917103646776</v>
       </c>
       <c r="AJ3">
-        <v>0.3333333333857749</v>
+        <v>0.333333333385775</v>
       </c>
       <c r="AK3">
-        <v>0.8819171037296485</v>
+        <v>0.8819171037296482</v>
       </c>
       <c r="AL3">
-        <v>0.8819171036503575</v>
+        <v>0.8819171036503574</v>
       </c>
       <c r="AM3">
-        <v>1.573883692711622E-08</v>
+        <v>1.573885483766686E-08</v>
       </c>
       <c r="AN3">
         <v>-100.8933946508607</v>
@@ -7893,7 +7893,7 @@
         <v>100.8933946519859</v>
       </c>
       <c r="AP3">
-        <v>1.387952772508363E-08</v>
+        <v>1.387958429182639E-08</v>
       </c>
       <c r="AQ3">
         <v>-100.8933946503433</v>
@@ -7943,40 +7943,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>8.148125139300421E-10</v>
+        <v>8.148144876598646E-10</v>
       </c>
       <c r="O4">
-        <v>2.036950012720912E-10</v>
+        <v>2.037109770925289E-10</v>
       </c>
       <c r="P4">
-        <v>2.037072308029256E-10</v>
+        <v>2.037100714550538E-10</v>
       </c>
       <c r="Q4">
-        <v>-8.148121191393341E-10</v>
+        <v>-8.148136981231921E-10</v>
       </c>
       <c r="R4">
-        <v>-2.036942117689772E-10</v>
+        <v>-2.037050209737291E-10</v>
       </c>
       <c r="S4">
-        <v>-2.037051796315415E-10</v>
+        <v>-2.037121226040672E-10</v>
       </c>
       <c r="T4">
-        <v>7.897157533085495E-16</v>
+        <v>2.238253332076382E-19</v>
       </c>
       <c r="U4">
-        <v>1.058463432841604E-09</v>
+        <v>1.05846354898717E-09</v>
       </c>
       <c r="V4">
-        <v>-1.058471714800864E-09</v>
+        <v>-1.058475422375297E-09</v>
       </c>
       <c r="W4">
-        <v>-2.368673169144512E-15</v>
+        <v>-1.579181241584917E-15</v>
       </c>
       <c r="X4">
-        <v>-1.058459330514597E-09</v>
+        <v>-1.058465758798552E-09</v>
       </c>
       <c r="Y4">
-        <v>1.058472109553439E-09</v>
+        <v>1.058475027635942E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -7997,25 +7997,25 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.333333333404079</v>
+        <v>0.3333333334040791</v>
       </c>
       <c r="AH4">
-        <v>0.8819171037366886</v>
+        <v>0.8819171037366885</v>
       </c>
       <c r="AI4">
-        <v>0.8819171036467764</v>
+        <v>0.881917103646776</v>
       </c>
       <c r="AJ4">
-        <v>0.3333333333857749</v>
+        <v>0.333333333385775</v>
       </c>
       <c r="AK4">
-        <v>0.8819171037296485</v>
+        <v>0.8819171037296482</v>
       </c>
       <c r="AL4">
-        <v>0.8819171036503575</v>
+        <v>0.8819171036503574</v>
       </c>
       <c r="AM4">
-        <v>1.573883568467597E-08</v>
+        <v>1.573885483766686E-08</v>
       </c>
       <c r="AN4">
         <v>-100.8933946508607</v>
@@ -8024,7 +8024,7 @@
         <v>100.8933946519859</v>
       </c>
       <c r="AP4">
-        <v>1.387952772508363E-08</v>
+        <v>1.387958429182639E-08</v>
       </c>
       <c r="AQ4">
         <v>-100.8933946503433</v>
@@ -8221,40 +8221,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.624739819041317E-09</v>
+        <v>-2.624751832960092E-09</v>
       </c>
       <c r="O2">
-        <v>-1.140189397355519E-09</v>
+        <v>-1.140197081830769E-09</v>
       </c>
       <c r="P2">
-        <v>-1.721682363949232E-10</v>
+        <v>-1.721815126687594E-10</v>
       </c>
       <c r="Q2">
-        <v>2.624738827563759E-09</v>
+        <v>2.624751503343374E-09</v>
       </c>
       <c r="R2">
-        <v>1.140191939492998E-09</v>
+        <v>1.14019647061882E-09</v>
       </c>
       <c r="S2">
-        <v>1.721648036084517E-10</v>
+        <v>1.72178255472793E-10</v>
       </c>
       <c r="T2">
-        <v>1.117779327206008E-09</v>
+        <v>1.11777802461165E-09</v>
       </c>
       <c r="U2">
-        <v>-1.947063117584023E-09</v>
+        <v>-1.947067018039959E-09</v>
       </c>
       <c r="V2">
-        <v>2.505935859623044E-09</v>
+        <v>2.505953195765241E-09</v>
       </c>
       <c r="W2">
-        <v>-1.117781098754809E-09</v>
+        <v>-1.11777632747608E-09</v>
       </c>
       <c r="X2">
-        <v>1.947067629334371E-09</v>
+        <v>1.947061875680985E-09</v>
       </c>
       <c r="Y2">
-        <v>-2.505932147265233E-09</v>
+        <v>-2.505954141739439E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -8275,40 +8275,40 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.5421614591499193</v>
+        <v>0.5421614591499188</v>
       </c>
       <c r="AH2">
-        <v>0.8576025463155463</v>
+        <v>0.8576025463155461</v>
       </c>
       <c r="AI2">
-        <v>0.9547184906659627</v>
+        <v>0.9547184906659626</v>
       </c>
       <c r="AJ2">
-        <v>0.5421614591770476</v>
+        <v>0.5421614591770473</v>
       </c>
       <c r="AK2">
-        <v>0.8576025463355481</v>
+        <v>0.8576025463355478</v>
       </c>
       <c r="AL2">
-        <v>0.9547184906556984</v>
+        <v>0.9547184906556982</v>
       </c>
       <c r="AM2">
-        <v>-10.80277169403311</v>
+        <v>-10.80277169403309</v>
       </c>
       <c r="AN2">
-        <v>-108.0887396155924</v>
+        <v>-108.0887396155923</v>
       </c>
       <c r="AO2">
         <v>106.1949204558219</v>
       </c>
       <c r="AP2">
-        <v>-10.80277169013766</v>
+        <v>-10.80277169013764</v>
       </c>
       <c r="AQ2">
         <v>-108.0887396163351</v>
       </c>
       <c r="AR2">
-        <v>106.1949204570493</v>
+        <v>106.1949204570494</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -8352,40 +8352,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>8.749113090549533E-10</v>
+        <v>8.749214019858603E-10</v>
       </c>
       <c r="O3">
-        <v>3.800701862802415E-10</v>
+        <v>3.800692596815166E-10</v>
       </c>
       <c r="P3">
-        <v>5.738604858195407E-11</v>
+        <v>5.738937752188745E-11</v>
       </c>
       <c r="Q3">
-        <v>-8.749125413934726E-10</v>
+        <v>-8.749226944935463E-10</v>
       </c>
       <c r="R3">
-        <v>-3.800733590300143E-10</v>
+        <v>-3.800657133669711E-10</v>
       </c>
       <c r="S3">
-        <v>-5.738839566523298E-11</v>
+        <v>-5.739172460516613E-11</v>
       </c>
       <c r="T3">
-        <v>-3.725988348153686E-10</v>
+        <v>-3.725938975182471E-10</v>
       </c>
       <c r="U3">
-        <v>6.490230088423601E-10</v>
+        <v>6.490169010418233E-10</v>
       </c>
       <c r="V3">
-        <v>-8.353003718685592E-10</v>
+        <v>-8.353158876932322E-10</v>
       </c>
       <c r="W3">
-        <v>3.725958018178885E-10</v>
+        <v>3.72590549185824E-10</v>
       </c>
       <c r="X3">
-        <v>-6.490294513805402E-10</v>
+        <v>-6.490191277891234E-10</v>
       </c>
       <c r="Y3">
-        <v>8.353043995340853E-10</v>
+        <v>8.353199153587585E-10</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -8406,25 +8406,25 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.5421614591860903</v>
+        <v>0.5421614591860904</v>
       </c>
       <c r="AH3">
-        <v>0.8576025463422151</v>
+        <v>0.857602546342215</v>
       </c>
       <c r="AI3">
-        <v>0.9547184906522771</v>
+        <v>0.9547184906522768</v>
       </c>
       <c r="AJ3">
-        <v>0.5421614591770476</v>
+        <v>0.5421614591770473</v>
       </c>
       <c r="AK3">
-        <v>0.8576025463355481</v>
+        <v>0.8576025463355478</v>
       </c>
       <c r="AL3">
-        <v>0.9547184906556984</v>
+        <v>0.9547184906556982</v>
       </c>
       <c r="AM3">
-        <v>-10.80277168883916</v>
+        <v>-10.80277168883915</v>
       </c>
       <c r="AN3">
         <v>-108.0887396165827</v>
@@ -8433,13 +8433,13 @@
         <v>106.1949204574585</v>
       </c>
       <c r="AP3">
-        <v>-10.80277169013766</v>
+        <v>-10.80277169013764</v>
       </c>
       <c r="AQ3">
         <v>-108.0887396163351</v>
       </c>
       <c r="AR3">
-        <v>106.1949204570493</v>
+        <v>106.1949204570494</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -8483,40 +8483,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>8.74922843833133E-10</v>
+        <v>8.749214019858603E-10</v>
       </c>
       <c r="O4">
-        <v>3.800634284037151E-10</v>
+        <v>3.800692596815166E-10</v>
       </c>
       <c r="P4">
-        <v>5.739326543957206E-11</v>
+        <v>5.738937752188745E-11</v>
       </c>
       <c r="Q4">
-        <v>-8.749235948183155E-10</v>
+        <v>-8.749226944935463E-10</v>
       </c>
       <c r="R4">
-        <v>-3.800605127590553E-10</v>
+        <v>-3.800657133669711E-10</v>
       </c>
       <c r="S4">
-        <v>-5.739669827211725E-11</v>
+        <v>-5.739172460516613E-11</v>
       </c>
       <c r="T4">
-        <v>-3.725931921900872E-10</v>
+        <v>-3.725938975182471E-10</v>
       </c>
       <c r="U4">
-        <v>6.490252161869598E-10</v>
+        <v>6.490169010418233E-10</v>
       </c>
       <c r="V4">
-        <v>-8.353171131869368E-10</v>
+        <v>-8.353158876932322E-10</v>
       </c>
       <c r="W4">
-        <v>3.725926818721497E-10</v>
+        <v>3.72590549185824E-10</v>
       </c>
       <c r="X4">
-        <v>-6.490293737561246E-10</v>
+        <v>-6.490191277891234E-10</v>
       </c>
       <c r="Y4">
-        <v>8.353208255175203E-10</v>
+        <v>8.353199153587585E-10</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -8537,22 +8537,22 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.5421614591860905</v>
+        <v>0.5421614591860904</v>
       </c>
       <c r="AH4">
         <v>0.857602546342215</v>
       </c>
       <c r="AI4">
-        <v>0.954718490652277</v>
+        <v>0.9547184906522768</v>
       </c>
       <c r="AJ4">
-        <v>0.5421614591770476</v>
+        <v>0.5421614591770473</v>
       </c>
       <c r="AK4">
-        <v>0.8576025463355481</v>
+        <v>0.8576025463355478</v>
       </c>
       <c r="AL4">
-        <v>0.9547184906556984</v>
+        <v>0.9547184906556982</v>
       </c>
       <c r="AM4">
         <v>-10.80277168883915</v>
@@ -8564,13 +8564,13 @@
         <v>106.1949204574585</v>
       </c>
       <c r="AP4">
-        <v>-10.80277169013766</v>
+        <v>-10.80277169013764</v>
       </c>
       <c r="AQ4">
         <v>-108.0887396163351</v>
       </c>
       <c r="AR4">
-        <v>106.1949204570493</v>
+        <v>106.1949204570494</v>
       </c>
     </row>
   </sheetData>
@@ -8761,40 +8761,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.624739819041317E-09</v>
+        <v>-2.624751832960092E-09</v>
       </c>
       <c r="O2">
-        <v>-1.140189397355519E-09</v>
+        <v>-1.140197081830769E-09</v>
       </c>
       <c r="P2">
-        <v>-1.721682363949232E-10</v>
+        <v>-1.721815126687594E-10</v>
       </c>
       <c r="Q2">
-        <v>2.624738827563759E-09</v>
+        <v>2.624751503343374E-09</v>
       </c>
       <c r="R2">
-        <v>1.140191939492998E-09</v>
+        <v>1.14019647061882E-09</v>
       </c>
       <c r="S2">
-        <v>1.721648036084517E-10</v>
+        <v>1.72178255472793E-10</v>
       </c>
       <c r="T2">
-        <v>1.117779327206008E-09</v>
+        <v>1.11777802461165E-09</v>
       </c>
       <c r="U2">
-        <v>-1.947063117584023E-09</v>
+        <v>-1.947067018039959E-09</v>
       </c>
       <c r="V2">
-        <v>2.505935859623044E-09</v>
+        <v>2.505953195765241E-09</v>
       </c>
       <c r="W2">
-        <v>-1.117781098754809E-09</v>
+        <v>-1.11777632747608E-09</v>
       </c>
       <c r="X2">
-        <v>1.947067629334371E-09</v>
+        <v>1.947061875680985E-09</v>
       </c>
       <c r="Y2">
-        <v>-2.505932147265233E-09</v>
+        <v>-2.505954141739439E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -8815,40 +8815,40 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.5421614591499193</v>
+        <v>0.5421614591499188</v>
       </c>
       <c r="AH2">
-        <v>0.8576025463155463</v>
+        <v>0.8576025463155461</v>
       </c>
       <c r="AI2">
-        <v>0.9547184906659627</v>
+        <v>0.9547184906659626</v>
       </c>
       <c r="AJ2">
-        <v>0.5421614591770476</v>
+        <v>0.5421614591770473</v>
       </c>
       <c r="AK2">
-        <v>0.8576025463355481</v>
+        <v>0.8576025463355478</v>
       </c>
       <c r="AL2">
-        <v>0.9547184906556984</v>
+        <v>0.9547184906556982</v>
       </c>
       <c r="AM2">
-        <v>-10.80277169403311</v>
+        <v>-10.80277169403309</v>
       </c>
       <c r="AN2">
-        <v>-108.0887396155924</v>
+        <v>-108.0887396155923</v>
       </c>
       <c r="AO2">
         <v>106.1949204558219</v>
       </c>
       <c r="AP2">
-        <v>-10.80277169013766</v>
+        <v>-10.80277169013764</v>
       </c>
       <c r="AQ2">
         <v>-108.0887396163351</v>
       </c>
       <c r="AR2">
-        <v>106.1949204570493</v>
+        <v>106.1949204570494</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -8892,40 +8892,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>8.749113090549533E-10</v>
+        <v>8.749214019858603E-10</v>
       </c>
       <c r="O3">
-        <v>3.800701862802415E-10</v>
+        <v>3.800692596815166E-10</v>
       </c>
       <c r="P3">
-        <v>5.738604858195407E-11</v>
+        <v>5.738937752188745E-11</v>
       </c>
       <c r="Q3">
-        <v>-8.749125413934726E-10</v>
+        <v>-8.749226944935463E-10</v>
       </c>
       <c r="R3">
-        <v>-3.800733590300143E-10</v>
+        <v>-3.800657133669711E-10</v>
       </c>
       <c r="S3">
-        <v>-5.738839566523298E-11</v>
+        <v>-5.739172460516613E-11</v>
       </c>
       <c r="T3">
-        <v>-3.725988348153686E-10</v>
+        <v>-3.725938975182471E-10</v>
       </c>
       <c r="U3">
-        <v>6.490230088423601E-10</v>
+        <v>6.490169010418233E-10</v>
       </c>
       <c r="V3">
-        <v>-8.353003718685592E-10</v>
+        <v>-8.353158876932322E-10</v>
       </c>
       <c r="W3">
-        <v>3.725958018178885E-10</v>
+        <v>3.72590549185824E-10</v>
       </c>
       <c r="X3">
-        <v>-6.490294513805402E-10</v>
+        <v>-6.490191277891234E-10</v>
       </c>
       <c r="Y3">
-        <v>8.353043995340853E-10</v>
+        <v>8.353199153587585E-10</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -8946,25 +8946,25 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.5421614591860903</v>
+        <v>0.5421614591860904</v>
       </c>
       <c r="AH3">
-        <v>0.8576025463422151</v>
+        <v>0.857602546342215</v>
       </c>
       <c r="AI3">
-        <v>0.9547184906522771</v>
+        <v>0.9547184906522768</v>
       </c>
       <c r="AJ3">
-        <v>0.5421614591770476</v>
+        <v>0.5421614591770473</v>
       </c>
       <c r="AK3">
-        <v>0.8576025463355481</v>
+        <v>0.8576025463355478</v>
       </c>
       <c r="AL3">
-        <v>0.9547184906556984</v>
+        <v>0.9547184906556982</v>
       </c>
       <c r="AM3">
-        <v>-10.80277168883916</v>
+        <v>-10.80277168883915</v>
       </c>
       <c r="AN3">
         <v>-108.0887396165827</v>
@@ -8973,13 +8973,13 @@
         <v>106.1949204574585</v>
       </c>
       <c r="AP3">
-        <v>-10.80277169013766</v>
+        <v>-10.80277169013764</v>
       </c>
       <c r="AQ3">
         <v>-108.0887396163351</v>
       </c>
       <c r="AR3">
-        <v>106.1949204570493</v>
+        <v>106.1949204570494</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -9023,40 +9023,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>8.74922843833133E-10</v>
+        <v>8.749214019858603E-10</v>
       </c>
       <c r="O4">
-        <v>3.800634284037151E-10</v>
+        <v>3.800692596815166E-10</v>
       </c>
       <c r="P4">
-        <v>5.739326543957206E-11</v>
+        <v>5.738937752188745E-11</v>
       </c>
       <c r="Q4">
-        <v>-8.749235948183155E-10</v>
+        <v>-8.749226944935463E-10</v>
       </c>
       <c r="R4">
-        <v>-3.800605127590553E-10</v>
+        <v>-3.800657133669711E-10</v>
       </c>
       <c r="S4">
-        <v>-5.739669827211725E-11</v>
+        <v>-5.739172460516613E-11</v>
       </c>
       <c r="T4">
-        <v>-3.725931921900872E-10</v>
+        <v>-3.725938975182471E-10</v>
       </c>
       <c r="U4">
-        <v>6.490252161869598E-10</v>
+        <v>6.490169010418233E-10</v>
       </c>
       <c r="V4">
-        <v>-8.353171131869368E-10</v>
+        <v>-8.353158876932322E-10</v>
       </c>
       <c r="W4">
-        <v>3.725926818721497E-10</v>
+        <v>3.72590549185824E-10</v>
       </c>
       <c r="X4">
-        <v>-6.490293737561246E-10</v>
+        <v>-6.490191277891234E-10</v>
       </c>
       <c r="Y4">
-        <v>8.353208255175203E-10</v>
+        <v>8.353199153587585E-10</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -9077,22 +9077,22 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.5421614591860905</v>
+        <v>0.5421614591860904</v>
       </c>
       <c r="AH4">
         <v>0.857602546342215</v>
       </c>
       <c r="AI4">
-        <v>0.954718490652277</v>
+        <v>0.9547184906522768</v>
       </c>
       <c r="AJ4">
-        <v>0.5421614591770476</v>
+        <v>0.5421614591770473</v>
       </c>
       <c r="AK4">
-        <v>0.8576025463355481</v>
+        <v>0.8576025463355478</v>
       </c>
       <c r="AL4">
-        <v>0.9547184906556984</v>
+        <v>0.9547184906556982</v>
       </c>
       <c r="AM4">
         <v>-10.80277168883915</v>
@@ -9104,13 +9104,13 @@
         <v>106.1949204574585</v>
       </c>
       <c r="AP4">
-        <v>-10.80277169013766</v>
+        <v>-10.80277169013764</v>
       </c>
       <c r="AQ4">
         <v>-108.0887396163351</v>
       </c>
       <c r="AR4">
-        <v>106.1949204570493</v>
+        <v>106.1949204570494</v>
       </c>
     </row>
   </sheetData>
@@ -9301,40 +9301,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.957792415758428E-09</v>
+        <v>-2.95778546822931E-09</v>
       </c>
       <c r="O2">
-        <v>-7.394463667101122E-10</v>
+        <v>-7.394689461797611E-10</v>
       </c>
       <c r="P2">
-        <v>-7.394498411229207E-10</v>
+        <v>-7.394289985355479E-10</v>
       </c>
       <c r="Q2">
-        <v>2.957785468292752E-09</v>
+        <v>2.957778520763631E-09</v>
       </c>
       <c r="R2">
-        <v>7.394411565073844E-10</v>
+        <v>7.39477631035269E-10</v>
       </c>
       <c r="S2">
-        <v>7.394463678024659E-10</v>
+        <v>7.394324727442195E-10</v>
       </c>
       <c r="T2">
-        <v>3.126380443172149E-14</v>
+        <v>3.821133355559419E-14</v>
       </c>
       <c r="U2">
-        <v>3.842268451026756E-09</v>
+        <v>3.842264977262194E-09</v>
       </c>
       <c r="V2">
-        <v>-3.842254560405036E-09</v>
+        <v>-3.842254560405027E-09</v>
       </c>
       <c r="W2">
-        <v>-2.77899678854319E-14</v>
+        <v>-3.821126157018019E-14</v>
       </c>
       <c r="X2">
-        <v>-3.842263239876021E-09</v>
+        <v>-3.842268450522854E-09</v>
       </c>
       <c r="Y2">
-        <v>3.842254560908927E-09</v>
+        <v>3.842240665850663E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -9355,40 +9355,40 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.7333333491947052</v>
+        <v>0.7333333491947058</v>
       </c>
       <c r="AH2">
         <v>0.3666666743874873</v>
       </c>
       <c r="AI2">
-        <v>0.366666674807224</v>
+        <v>0.3666666748072233</v>
       </c>
       <c r="AJ2">
-        <v>0.7333333492104352</v>
+        <v>0.7333333492104357</v>
       </c>
       <c r="AK2">
-        <v>0.3666666743489829</v>
+        <v>0.3666666743489834</v>
       </c>
       <c r="AL2">
-        <v>0.366666674861458</v>
+        <v>0.3666666748614571</v>
       </c>
       <c r="AM2">
-        <v>1.484175908440117E-09</v>
+        <v>1.484145939990438E-09</v>
       </c>
       <c r="AN2">
-        <v>-179.9999999988592</v>
+        <v>-179.999999998859</v>
       </c>
       <c r="AO2">
-        <v>-179.9999999981703</v>
+        <v>-179.9999999981704</v>
       </c>
       <c r="AP2">
-        <v>2.878629163342476E-09</v>
+        <v>2.87861062084887E-09</v>
       </c>
       <c r="AQ2">
-        <v>-179.9999999910787</v>
+        <v>-179.9999999910785</v>
       </c>
       <c r="AR2">
-        <v>179.9999999968235</v>
+        <v>179.9999999968234</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -9432,40 +9432,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>9.858995413999561E-10</v>
+        <v>9.859238577518853E-10</v>
       </c>
       <c r="O3">
-        <v>2.464774907480086E-10</v>
+        <v>2.464827013948489E-10</v>
       </c>
       <c r="P3">
-        <v>2.46494859786901E-10</v>
+        <v>2.464809647286506E-10</v>
       </c>
       <c r="Q3">
-        <v>-9.85913436451153E-10</v>
+        <v>-9.859273315093976E-10</v>
       </c>
       <c r="R3">
-        <v>-2.464757538163842E-10</v>
+        <v>-2.464809644632251E-10</v>
       </c>
       <c r="S3">
-        <v>-2.465052810312465E-10</v>
+        <v>-2.464844384438675E-10</v>
       </c>
       <c r="T3">
-        <v>-1.04212361522868E-14</v>
+        <v>-1.04212361506486E-14</v>
       </c>
       <c r="U3">
-        <v>-1.280756150118301E-09</v>
+        <v>-1.280745728824624E-09</v>
       </c>
       <c r="V3">
-        <v>1.28075615204505E-09</v>
+        <v>1.280756152045045E-09</v>
       </c>
       <c r="W3">
-        <v>2.084253783305802E-14</v>
+        <v>1.0421244149237E-14</v>
       </c>
       <c r="X3">
-        <v>1.280761360821125E-09</v>
+        <v>1.280742255116052E-09</v>
       </c>
       <c r="Y3">
-        <v>-1.280763099518187E-09</v>
+        <v>-1.280756151989057E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -9486,40 +9486,40 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.7333333492156778</v>
+        <v>0.7333333492156786</v>
       </c>
       <c r="AH3">
-        <v>0.3666666743361487</v>
+        <v>0.3666666743361491</v>
       </c>
       <c r="AI3">
-        <v>0.3666666748795367</v>
+        <v>0.3666666748795354</v>
       </c>
       <c r="AJ3">
-        <v>0.7333333492104352</v>
+        <v>0.7333333492104357</v>
       </c>
       <c r="AK3">
-        <v>0.3666666743489829</v>
+        <v>0.3666666743489834</v>
       </c>
       <c r="AL3">
-        <v>0.366666674861458</v>
+        <v>0.3666666748614571</v>
       </c>
       <c r="AM3">
-        <v>3.343440698985656E-09</v>
+        <v>3.34345344066759E-09</v>
       </c>
       <c r="AN3">
-        <v>-179.9999999884852</v>
+        <v>-179.999999988485</v>
       </c>
       <c r="AO3">
-        <v>179.9999999951597</v>
+        <v>179.9999999951594</v>
       </c>
       <c r="AP3">
-        <v>2.878629163342476E-09</v>
+        <v>2.87861062084887E-09</v>
       </c>
       <c r="AQ3">
-        <v>-179.9999999910787</v>
+        <v>-179.9999999910785</v>
       </c>
       <c r="AR3">
-        <v>179.9999999968235</v>
+        <v>179.9999999968234</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -9563,40 +9563,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>9.858891201062718E-10</v>
+        <v>9.859238577518853E-10</v>
       </c>
       <c r="O4">
-        <v>2.46477490748009E-10</v>
+        <v>2.464827013948489E-10</v>
       </c>
       <c r="P4">
-        <v>2.464740171995197E-10</v>
+        <v>2.464809647286506E-10</v>
       </c>
       <c r="Q4">
-        <v>-9.858995413929077E-10</v>
+        <v>-9.859273315093976E-10</v>
       </c>
       <c r="R4">
-        <v>-2.464896488746192E-10</v>
+        <v>-2.464809644632251E-10</v>
       </c>
       <c r="S4">
-        <v>-2.46484438443865E-10</v>
+        <v>-2.464844384438675E-10</v>
       </c>
       <c r="T4">
-        <v>3.473822091601737E-15</v>
+        <v>-1.04212361506486E-14</v>
       </c>
       <c r="U4">
-        <v>-1.280756150118301E-09</v>
+        <v>-1.280745728824624E-09</v>
       </c>
       <c r="V4">
-        <v>1.280756152045051E-09</v>
+        <v>1.280756152045045E-09</v>
       </c>
       <c r="W4">
-        <v>6.94747958916681E-15</v>
+        <v>1.0421244149237E-14</v>
       </c>
       <c r="X4">
-        <v>1.280761360821123E-09</v>
+        <v>1.280742255116052E-09</v>
       </c>
       <c r="Y4">
-        <v>-1.280763099518188E-09</v>
+        <v>-1.280756151989057E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -9617,40 +9617,40 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.7333333492156778</v>
+        <v>0.7333333492156786</v>
       </c>
       <c r="AH4">
-        <v>0.3666666743361489</v>
+        <v>0.3666666743361491</v>
       </c>
       <c r="AI4">
-        <v>0.3666666748795366</v>
+        <v>0.3666666748795354</v>
       </c>
       <c r="AJ4">
-        <v>0.7333333492104352</v>
+        <v>0.7333333492104357</v>
       </c>
       <c r="AK4">
-        <v>0.3666666743489829</v>
+        <v>0.3666666743489834</v>
       </c>
       <c r="AL4">
-        <v>0.366666674861458</v>
+        <v>0.3666666748614571</v>
       </c>
       <c r="AM4">
-        <v>3.343429540757864E-09</v>
+        <v>3.34345344066759E-09</v>
       </c>
       <c r="AN4">
-        <v>-179.9999999884852</v>
+        <v>-179.999999988485</v>
       </c>
       <c r="AO4">
-        <v>179.9999999951597</v>
+        <v>179.9999999951594</v>
       </c>
       <c r="AP4">
-        <v>2.878629163342476E-09</v>
+        <v>2.87861062084887E-09</v>
       </c>
       <c r="AQ4">
-        <v>-179.9999999910787</v>
+        <v>-179.9999999910785</v>
       </c>
       <c r="AR4">
-        <v>179.9999999968235</v>
+        <v>179.9999999968234</v>
       </c>
     </row>
   </sheetData>
@@ -9841,40 +9841,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.957792415758428E-09</v>
+        <v>-2.95778546822931E-09</v>
       </c>
       <c r="O2">
-        <v>-7.394463667101122E-10</v>
+        <v>-7.394689461797611E-10</v>
       </c>
       <c r="P2">
-        <v>-7.394498411229207E-10</v>
+        <v>-7.394289985355479E-10</v>
       </c>
       <c r="Q2">
-        <v>2.957785468292752E-09</v>
+        <v>2.957778520763631E-09</v>
       </c>
       <c r="R2">
-        <v>7.394411565073844E-10</v>
+        <v>7.39477631035269E-10</v>
       </c>
       <c r="S2">
-        <v>7.394463678024659E-10</v>
+        <v>7.394324727442195E-10</v>
       </c>
       <c r="T2">
-        <v>3.126380443172149E-14</v>
+        <v>3.821133355559419E-14</v>
       </c>
       <c r="U2">
-        <v>3.842268451026756E-09</v>
+        <v>3.842264977262194E-09</v>
       </c>
       <c r="V2">
-        <v>-3.842254560405036E-09</v>
+        <v>-3.842254560405027E-09</v>
       </c>
       <c r="W2">
-        <v>-2.77899678854319E-14</v>
+        <v>-3.821126157018019E-14</v>
       </c>
       <c r="X2">
-        <v>-3.842263239876021E-09</v>
+        <v>-3.842268450522854E-09</v>
       </c>
       <c r="Y2">
-        <v>3.842254560908927E-09</v>
+        <v>3.842240665850663E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -9895,40 +9895,40 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.7333333491947052</v>
+        <v>0.7333333491947058</v>
       </c>
       <c r="AH2">
         <v>0.3666666743874873</v>
       </c>
       <c r="AI2">
-        <v>0.366666674807224</v>
+        <v>0.3666666748072233</v>
       </c>
       <c r="AJ2">
-        <v>0.7333333492104352</v>
+        <v>0.7333333492104357</v>
       </c>
       <c r="AK2">
-        <v>0.3666666743489829</v>
+        <v>0.3666666743489834</v>
       </c>
       <c r="AL2">
-        <v>0.366666674861458</v>
+        <v>0.3666666748614571</v>
       </c>
       <c r="AM2">
-        <v>1.484175908440117E-09</v>
+        <v>1.484145939990438E-09</v>
       </c>
       <c r="AN2">
-        <v>-179.9999999988592</v>
+        <v>-179.999999998859</v>
       </c>
       <c r="AO2">
-        <v>-179.9999999981703</v>
+        <v>-179.9999999981704</v>
       </c>
       <c r="AP2">
-        <v>2.878629163342476E-09</v>
+        <v>2.87861062084887E-09</v>
       </c>
       <c r="AQ2">
-        <v>-179.9999999910787</v>
+        <v>-179.9999999910785</v>
       </c>
       <c r="AR2">
-        <v>179.9999999968235</v>
+        <v>179.9999999968234</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -9972,40 +9972,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>9.858995413999561E-10</v>
+        <v>9.859238577518853E-10</v>
       </c>
       <c r="O3">
-        <v>2.464774907480086E-10</v>
+        <v>2.464827013948489E-10</v>
       </c>
       <c r="P3">
-        <v>2.46494859786901E-10</v>
+        <v>2.464809647286506E-10</v>
       </c>
       <c r="Q3">
-        <v>-9.85913436451153E-10</v>
+        <v>-9.859273315093976E-10</v>
       </c>
       <c r="R3">
-        <v>-2.464757538163842E-10</v>
+        <v>-2.464809644632251E-10</v>
       </c>
       <c r="S3">
-        <v>-2.465052810312465E-10</v>
+        <v>-2.464844384438675E-10</v>
       </c>
       <c r="T3">
-        <v>-1.04212361522868E-14</v>
+        <v>-1.04212361506486E-14</v>
       </c>
       <c r="U3">
-        <v>-1.280756150118301E-09</v>
+        <v>-1.280745728824624E-09</v>
       </c>
       <c r="V3">
-        <v>1.28075615204505E-09</v>
+        <v>1.280756152045045E-09</v>
       </c>
       <c r="W3">
-        <v>2.084253783305802E-14</v>
+        <v>1.0421244149237E-14</v>
       </c>
       <c r="X3">
-        <v>1.280761360821125E-09</v>
+        <v>1.280742255116052E-09</v>
       </c>
       <c r="Y3">
-        <v>-1.280763099518187E-09</v>
+        <v>-1.280756151989057E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -10026,40 +10026,40 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.7333333492156778</v>
+        <v>0.7333333492156786</v>
       </c>
       <c r="AH3">
-        <v>0.3666666743361487</v>
+        <v>0.3666666743361491</v>
       </c>
       <c r="AI3">
-        <v>0.3666666748795367</v>
+        <v>0.3666666748795354</v>
       </c>
       <c r="AJ3">
-        <v>0.7333333492104352</v>
+        <v>0.7333333492104357</v>
       </c>
       <c r="AK3">
-        <v>0.3666666743489829</v>
+        <v>0.3666666743489834</v>
       </c>
       <c r="AL3">
-        <v>0.366666674861458</v>
+        <v>0.3666666748614571</v>
       </c>
       <c r="AM3">
-        <v>3.343440698985656E-09</v>
+        <v>3.34345344066759E-09</v>
       </c>
       <c r="AN3">
-        <v>-179.9999999884852</v>
+        <v>-179.999999988485</v>
       </c>
       <c r="AO3">
-        <v>179.9999999951597</v>
+        <v>179.9999999951594</v>
       </c>
       <c r="AP3">
-        <v>2.878629163342476E-09</v>
+        <v>2.87861062084887E-09</v>
       </c>
       <c r="AQ3">
-        <v>-179.9999999910787</v>
+        <v>-179.9999999910785</v>
       </c>
       <c r="AR3">
-        <v>179.9999999968235</v>
+        <v>179.9999999968234</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -10103,40 +10103,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>9.858891201062718E-10</v>
+        <v>9.859238577518853E-10</v>
       </c>
       <c r="O4">
-        <v>2.46477490748009E-10</v>
+        <v>2.464827013948489E-10</v>
       </c>
       <c r="P4">
-        <v>2.464740171995197E-10</v>
+        <v>2.464809647286506E-10</v>
       </c>
       <c r="Q4">
-        <v>-9.858995413929077E-10</v>
+        <v>-9.859273315093976E-10</v>
       </c>
       <c r="R4">
-        <v>-2.464896488746192E-10</v>
+        <v>-2.464809644632251E-10</v>
       </c>
       <c r="S4">
-        <v>-2.46484438443865E-10</v>
+        <v>-2.464844384438675E-10</v>
       </c>
       <c r="T4">
-        <v>3.473822091601737E-15</v>
+        <v>-1.04212361506486E-14</v>
       </c>
       <c r="U4">
-        <v>-1.280756150118301E-09</v>
+        <v>-1.280745728824624E-09</v>
       </c>
       <c r="V4">
-        <v>1.280756152045051E-09</v>
+        <v>1.280756152045045E-09</v>
       </c>
       <c r="W4">
-        <v>6.94747958916681E-15</v>
+        <v>1.0421244149237E-14</v>
       </c>
       <c r="X4">
-        <v>1.280761360821123E-09</v>
+        <v>1.280742255116052E-09</v>
       </c>
       <c r="Y4">
-        <v>-1.280763099518188E-09</v>
+        <v>-1.280756151989057E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -10157,40 +10157,40 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.7333333492156778</v>
+        <v>0.7333333492156786</v>
       </c>
       <c r="AH4">
-        <v>0.3666666743361489</v>
+        <v>0.3666666743361491</v>
       </c>
       <c r="AI4">
-        <v>0.3666666748795366</v>
+        <v>0.3666666748795354</v>
       </c>
       <c r="AJ4">
-        <v>0.7333333492104352</v>
+        <v>0.7333333492104357</v>
       </c>
       <c r="AK4">
-        <v>0.3666666743489829</v>
+        <v>0.3666666743489834</v>
       </c>
       <c r="AL4">
-        <v>0.366666674861458</v>
+        <v>0.3666666748614571</v>
       </c>
       <c r="AM4">
-        <v>3.343429540757864E-09</v>
+        <v>3.34345344066759E-09</v>
       </c>
       <c r="AN4">
-        <v>-179.9999999884852</v>
+        <v>-179.999999988485</v>
       </c>
       <c r="AO4">
-        <v>179.9999999951597</v>
+        <v>179.9999999951594</v>
       </c>
       <c r="AP4">
-        <v>2.878629163342476E-09</v>
+        <v>2.87861062084887E-09</v>
       </c>
       <c r="AQ4">
-        <v>-179.9999999910787</v>
+        <v>-179.9999999910785</v>
       </c>
       <c r="AR4">
-        <v>179.9999999968235</v>
+        <v>179.9999999968234</v>
       </c>
     </row>
   </sheetData>
@@ -10381,40 +10381,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.272197829251245E-09</v>
+        <v>-2.272199574626472E-09</v>
       </c>
       <c r="O2">
-        <v>-1.904150528396024E-09</v>
+        <v>-1.904191669236806E-09</v>
       </c>
       <c r="P2">
-        <v>-3.132500529693681E-09</v>
+        <v>-3.13249597075309E-09</v>
       </c>
       <c r="Q2">
-        <v>2.272190292505188E-09</v>
+        <v>2.272199297018968E-09</v>
       </c>
       <c r="R2">
-        <v>1.904168342586301E-09</v>
+        <v>1.904197158121126E-09</v>
       </c>
       <c r="S2">
-        <v>3.132506384476927E-09</v>
+        <v>3.132494015401722E-09</v>
       </c>
       <c r="T2">
-        <v>7.092195805501685E-10</v>
+        <v>7.092237653947457E-10</v>
       </c>
       <c r="U2">
-        <v>4.349317583472807E-09</v>
+        <v>4.349300782398718E-09</v>
       </c>
       <c r="V2">
-        <v>-8.03340343370664E-10</v>
+        <v>-8.033527003309312E-10</v>
       </c>
       <c r="W2">
-        <v>-7.092109331891603E-10</v>
+        <v>-7.092278113862928E-10</v>
       </c>
       <c r="X2">
-        <v>-4.349312239813861E-09</v>
+        <v>-4.349298086240567E-09</v>
       </c>
       <c r="Y2">
-        <v>8.033396957942729E-10</v>
+        <v>8.033618063366061E-10</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -10435,40 +10435,40 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.8561498316503073</v>
+        <v>0.8561498316503077</v>
       </c>
       <c r="AH2">
-        <v>0.645459785903853</v>
+        <v>0.6454597859038529</v>
       </c>
       <c r="AI2">
-        <v>0.4396365303143204</v>
+        <v>0.4396365303143205</v>
       </c>
       <c r="AJ2">
-        <v>0.8561498316569923</v>
+        <v>0.8561498316569927</v>
       </c>
       <c r="AK2">
-        <v>0.6454597858855412</v>
+        <v>0.6454597858855414</v>
       </c>
       <c r="AL2">
-        <v>0.4396365303501945</v>
+        <v>0.4396365303501946</v>
       </c>
       <c r="AM2">
-        <v>-3.925473815880364</v>
+        <v>-3.925473815880363</v>
       </c>
       <c r="AN2">
-        <v>-153.8407182488145</v>
+        <v>-153.8407182488144</v>
       </c>
       <c r="AO2">
-        <v>128.6858355510056</v>
+        <v>128.6858355510055</v>
       </c>
       <c r="AP2">
-        <v>-3.925473814878226</v>
+        <v>-3.92547381487822</v>
       </c>
       <c r="AQ2">
-        <v>-153.8407182453229</v>
+        <v>-153.8407182453228</v>
       </c>
       <c r="AR2">
-        <v>128.6858355541858</v>
+        <v>128.6858355541857</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -10512,40 +10512,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>7.573796546099041E-10</v>
+        <v>7.573906025872342E-10</v>
       </c>
       <c r="O3">
-        <v>6.347096537758672E-10</v>
+        <v>6.347014449748843E-10</v>
       </c>
       <c r="P3">
-        <v>1.044175521252364E-09</v>
+        <v>1.044170962311772E-09</v>
       </c>
       <c r="Q3">
-        <v>-7.573877466580588E-10</v>
+        <v>-7.573827881700312E-10</v>
       </c>
       <c r="R3">
-        <v>-6.347082089572066E-10</v>
+        <v>-6.346959562781401E-10</v>
       </c>
       <c r="S3">
-        <v>-1.044178772422939E-09</v>
+        <v>-1.044174213482347E-09</v>
       </c>
       <c r="T3">
-        <v>-2.364160205944926E-10</v>
+        <v>-2.364045766113617E-10</v>
       </c>
       <c r="U3">
-        <v>-1.449757891255728E-09</v>
+        <v>-1.449758516817482E-09</v>
       </c>
       <c r="V3">
-        <v>2.677692772498926E-10</v>
+        <v>2.677816342101621E-10</v>
       </c>
       <c r="W3">
-        <v>2.364165758735931E-10</v>
+        <v>2.363999753141106E-10</v>
       </c>
       <c r="X3">
-        <v>1.449768820211001E-09</v>
+        <v>1.449761212762806E-09</v>
       </c>
       <c r="Y3">
-        <v>-2.677718806014938E-10</v>
+        <v>-2.67784237561764E-10</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -10566,40 +10566,40 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.8561498316592202</v>
+        <v>0.8561498316592207</v>
       </c>
       <c r="AH3">
-        <v>0.6454597858794374</v>
+        <v>0.6454597858794376</v>
       </c>
       <c r="AI3">
-        <v>0.4396365303621528</v>
+        <v>0.439636530362153</v>
       </c>
       <c r="AJ3">
-        <v>0.8561498316569923</v>
+        <v>0.8561498316569927</v>
       </c>
       <c r="AK3">
-        <v>0.6454597858855412</v>
+        <v>0.6454597858855414</v>
       </c>
       <c r="AL3">
-        <v>0.4396365303501945</v>
+        <v>0.4396365303501946</v>
       </c>
       <c r="AM3">
-        <v>-3.925473814544177</v>
+        <v>-3.925473814544163</v>
       </c>
       <c r="AN3">
         <v>-153.8407182441591</v>
       </c>
       <c r="AO3">
-        <v>128.685835555246</v>
+        <v>128.6858355552458</v>
       </c>
       <c r="AP3">
-        <v>-3.925473814878226</v>
+        <v>-3.92547381487822</v>
       </c>
       <c r="AQ3">
-        <v>-153.8407182453229</v>
+        <v>-153.8407182453228</v>
       </c>
       <c r="AR3">
-        <v>128.6858355541858</v>
+        <v>128.6858355541857</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -10643,40 +10643,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>7.573518877049407E-10</v>
+        <v>7.573906025872342E-10</v>
       </c>
       <c r="O4">
-        <v>6.347096537758672E-10</v>
+        <v>6.347014449748843E-10</v>
       </c>
       <c r="P4">
-        <v>1.044171610127589E-09</v>
+        <v>1.044170962311772E-09</v>
       </c>
       <c r="Q4">
-        <v>-7.573599797530956E-10</v>
+        <v>-7.573827881700312E-10</v>
       </c>
       <c r="R4">
-        <v>-6.347082089572066E-10</v>
+        <v>-6.346959562781401E-10</v>
       </c>
       <c r="S4">
-        <v>-1.044168358910119E-09</v>
+        <v>-1.044174213482347E-09</v>
       </c>
       <c r="T4">
-        <v>-2.364059850794393E-10</v>
+        <v>-2.364045766113617E-10</v>
       </c>
       <c r="U4">
-        <v>-1.449757891255728E-09</v>
+        <v>-1.449758516817482E-09</v>
       </c>
       <c r="V4">
-        <v>2.677874887823922E-10</v>
+        <v>2.677816342101621E-10</v>
       </c>
       <c r="W4">
-        <v>2.364065403585395E-10</v>
+        <v>2.363999753141106E-10</v>
       </c>
       <c r="X4">
-        <v>1.449768820211001E-09</v>
+        <v>1.449761212762806E-09</v>
       </c>
       <c r="Y4">
-        <v>-2.677848853775833E-10</v>
+        <v>-2.67784237561764E-10</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -10697,40 +10697,40 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.85614983165922</v>
+        <v>0.8561498316592207</v>
       </c>
       <c r="AH4">
-        <v>0.6454597858794375</v>
+        <v>0.6454597858794376</v>
       </c>
       <c r="AI4">
-        <v>0.4396365303621529</v>
+        <v>0.439636530362153</v>
       </c>
       <c r="AJ4">
-        <v>0.8561498316569923</v>
+        <v>0.8561498316569927</v>
       </c>
       <c r="AK4">
-        <v>0.6454597858855412</v>
+        <v>0.6454597858855414</v>
       </c>
       <c r="AL4">
-        <v>0.4396365303501945</v>
+        <v>0.4396365303501946</v>
       </c>
       <c r="AM4">
-        <v>-3.925473814544185</v>
+        <v>-3.925473814544163</v>
       </c>
       <c r="AN4">
         <v>-153.8407182441591</v>
       </c>
       <c r="AO4">
-        <v>128.685835555246</v>
+        <v>128.6858355552458</v>
       </c>
       <c r="AP4">
-        <v>-3.925473814878226</v>
+        <v>-3.92547381487822</v>
       </c>
       <c r="AQ4">
-        <v>-153.8407182453229</v>
+        <v>-153.8407182453228</v>
       </c>
       <c r="AR4">
-        <v>128.6858355541858</v>
+        <v>128.6858355541857</v>
       </c>
     </row>
   </sheetData>
@@ -10921,40 +10921,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.272197829251245E-09</v>
+        <v>-2.272199574626472E-09</v>
       </c>
       <c r="O2">
-        <v>-1.904150528396024E-09</v>
+        <v>-1.904191669236806E-09</v>
       </c>
       <c r="P2">
-        <v>-3.132500529693681E-09</v>
+        <v>-3.13249597075309E-09</v>
       </c>
       <c r="Q2">
-        <v>2.272190292505188E-09</v>
+        <v>2.272199297018968E-09</v>
       </c>
       <c r="R2">
-        <v>1.904168342586301E-09</v>
+        <v>1.904197158121126E-09</v>
       </c>
       <c r="S2">
-        <v>3.132506384476927E-09</v>
+        <v>3.132494015401722E-09</v>
       </c>
       <c r="T2">
-        <v>7.092195805501685E-10</v>
+        <v>7.092237653947457E-10</v>
       </c>
       <c r="U2">
-        <v>4.349317583472807E-09</v>
+        <v>4.349300782398718E-09</v>
       </c>
       <c r="V2">
-        <v>-8.03340343370664E-10</v>
+        <v>-8.033527003309312E-10</v>
       </c>
       <c r="W2">
-        <v>-7.092109331891603E-10</v>
+        <v>-7.092278113862928E-10</v>
       </c>
       <c r="X2">
-        <v>-4.349312239813861E-09</v>
+        <v>-4.349298086240567E-09</v>
       </c>
       <c r="Y2">
-        <v>8.033396957942729E-10</v>
+        <v>8.033618063366061E-10</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -10975,40 +10975,40 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.8561498316503073</v>
+        <v>0.8561498316503077</v>
       </c>
       <c r="AH2">
-        <v>0.645459785903853</v>
+        <v>0.6454597859038529</v>
       </c>
       <c r="AI2">
-        <v>0.4396365303143204</v>
+        <v>0.4396365303143205</v>
       </c>
       <c r="AJ2">
-        <v>0.8561498316569923</v>
+        <v>0.8561498316569927</v>
       </c>
       <c r="AK2">
-        <v>0.6454597858855412</v>
+        <v>0.6454597858855414</v>
       </c>
       <c r="AL2">
-        <v>0.4396365303501945</v>
+        <v>0.4396365303501946</v>
       </c>
       <c r="AM2">
-        <v>-3.925473815880364</v>
+        <v>-3.925473815880363</v>
       </c>
       <c r="AN2">
-        <v>-153.8407182488145</v>
+        <v>-153.8407182488144</v>
       </c>
       <c r="AO2">
-        <v>128.6858355510056</v>
+        <v>128.6858355510055</v>
       </c>
       <c r="AP2">
-        <v>-3.925473814878226</v>
+        <v>-3.92547381487822</v>
       </c>
       <c r="AQ2">
-        <v>-153.8407182453229</v>
+        <v>-153.8407182453228</v>
       </c>
       <c r="AR2">
-        <v>128.6858355541858</v>
+        <v>128.6858355541857</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -11052,40 +11052,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>7.573796546099041E-10</v>
+        <v>7.573906025872342E-10</v>
       </c>
       <c r="O3">
-        <v>6.347096537758672E-10</v>
+        <v>6.347014449748843E-10</v>
       </c>
       <c r="P3">
-        <v>1.044175521252364E-09</v>
+        <v>1.044170962311772E-09</v>
       </c>
       <c r="Q3">
-        <v>-7.573877466580588E-10</v>
+        <v>-7.573827881700312E-10</v>
       </c>
       <c r="R3">
-        <v>-6.347082089572066E-10</v>
+        <v>-6.346959562781401E-10</v>
       </c>
       <c r="S3">
-        <v>-1.044178772422939E-09</v>
+        <v>-1.044174213482347E-09</v>
       </c>
       <c r="T3">
-        <v>-2.364160205944926E-10</v>
+        <v>-2.364045766113617E-10</v>
       </c>
       <c r="U3">
-        <v>-1.449757891255728E-09</v>
+        <v>-1.449758516817482E-09</v>
       </c>
       <c r="V3">
-        <v>2.677692772498926E-10</v>
+        <v>2.677816342101621E-10</v>
       </c>
       <c r="W3">
-        <v>2.364165758735931E-10</v>
+        <v>2.363999753141106E-10</v>
       </c>
       <c r="X3">
-        <v>1.449768820211001E-09</v>
+        <v>1.449761212762806E-09</v>
       </c>
       <c r="Y3">
-        <v>-2.677718806014938E-10</v>
+        <v>-2.67784237561764E-10</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -11106,40 +11106,40 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.8561498316592202</v>
+        <v>0.8561498316592207</v>
       </c>
       <c r="AH3">
-        <v>0.6454597858794374</v>
+        <v>0.6454597858794376</v>
       </c>
       <c r="AI3">
-        <v>0.4396365303621528</v>
+        <v>0.439636530362153</v>
       </c>
       <c r="AJ3">
-        <v>0.8561498316569923</v>
+        <v>0.8561498316569927</v>
       </c>
       <c r="AK3">
-        <v>0.6454597858855412</v>
+        <v>0.6454597858855414</v>
       </c>
       <c r="AL3">
-        <v>0.4396365303501945</v>
+        <v>0.4396365303501946</v>
       </c>
       <c r="AM3">
-        <v>-3.925473814544177</v>
+        <v>-3.925473814544163</v>
       </c>
       <c r="AN3">
         <v>-153.8407182441591</v>
       </c>
       <c r="AO3">
-        <v>128.685835555246</v>
+        <v>128.6858355552458</v>
       </c>
       <c r="AP3">
-        <v>-3.925473814878226</v>
+        <v>-3.92547381487822</v>
       </c>
       <c r="AQ3">
-        <v>-153.8407182453229</v>
+        <v>-153.8407182453228</v>
       </c>
       <c r="AR3">
-        <v>128.6858355541858</v>
+        <v>128.6858355541857</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -11183,40 +11183,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>7.573518877049407E-10</v>
+        <v>7.573906025872342E-10</v>
       </c>
       <c r="O4">
-        <v>6.347096537758672E-10</v>
+        <v>6.347014449748843E-10</v>
       </c>
       <c r="P4">
-        <v>1.044171610127589E-09</v>
+        <v>1.044170962311772E-09</v>
       </c>
       <c r="Q4">
-        <v>-7.573599797530956E-10</v>
+        <v>-7.573827881700312E-10</v>
       </c>
       <c r="R4">
-        <v>-6.347082089572066E-10</v>
+        <v>-6.346959562781401E-10</v>
       </c>
       <c r="S4">
-        <v>-1.044168358910119E-09</v>
+        <v>-1.044174213482347E-09</v>
       </c>
       <c r="T4">
-        <v>-2.364059850794393E-10</v>
+        <v>-2.364045766113617E-10</v>
       </c>
       <c r="U4">
-        <v>-1.449757891255728E-09</v>
+        <v>-1.449758516817482E-09</v>
       </c>
       <c r="V4">
-        <v>2.677874887823922E-10</v>
+        <v>2.677816342101621E-10</v>
       </c>
       <c r="W4">
-        <v>2.364065403585395E-10</v>
+        <v>2.363999753141106E-10</v>
       </c>
       <c r="X4">
-        <v>1.449768820211001E-09</v>
+        <v>1.449761212762806E-09</v>
       </c>
       <c r="Y4">
-        <v>-2.677848853775833E-10</v>
+        <v>-2.67784237561764E-10</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -11237,40 +11237,40 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.85614983165922</v>
+        <v>0.8561498316592207</v>
       </c>
       <c r="AH4">
-        <v>0.6454597858794375</v>
+        <v>0.6454597858794376</v>
       </c>
       <c r="AI4">
-        <v>0.4396365303621529</v>
+        <v>0.439636530362153</v>
       </c>
       <c r="AJ4">
-        <v>0.8561498316569923</v>
+        <v>0.8561498316569927</v>
       </c>
       <c r="AK4">
-        <v>0.6454597858855412</v>
+        <v>0.6454597858855414</v>
       </c>
       <c r="AL4">
-        <v>0.4396365303501945</v>
+        <v>0.4396365303501946</v>
       </c>
       <c r="AM4">
-        <v>-3.925473814544185</v>
+        <v>-3.925473814544163</v>
       </c>
       <c r="AN4">
         <v>-153.8407182441591</v>
       </c>
       <c r="AO4">
-        <v>128.685835555246</v>
+        <v>128.6858355552458</v>
       </c>
       <c r="AP4">
-        <v>-3.925473814878226</v>
+        <v>-3.92547381487822</v>
       </c>
       <c r="AQ4">
-        <v>-153.8407182453229</v>
+        <v>-153.8407182453228</v>
       </c>
       <c r="AR4">
-        <v>128.6858355541858</v>
+        <v>128.6858355541857</v>
       </c>
     </row>
   </sheetData>
@@ -11461,40 +11461,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.444432804308156E-09</v>
+        <v>-2.444453331098298E-09</v>
       </c>
       <c r="O2">
-        <v>-6.111141220671274E-10</v>
+        <v>-6.111212274944871E-10</v>
       </c>
       <c r="P2">
-        <v>-6.111078067404257E-10</v>
+        <v>-6.111078067404273E-10</v>
       </c>
       <c r="Q2">
-        <v>2.444432804408827E-09</v>
+        <v>2.444453331198972E-09</v>
       </c>
       <c r="R2">
-        <v>6.111157017556817E-10</v>
+        <v>6.111196492153267E-10</v>
       </c>
       <c r="S2">
-        <v>6.111093864289837E-10</v>
+        <v>6.111078074451291E-10</v>
       </c>
       <c r="T2">
-        <v>-3.157966158335943E-15</v>
+        <v>-1.894780473204817E-14</v>
       </c>
       <c r="U2">
-        <v>3.175407589588605E-09</v>
+        <v>3.175406010604761E-09</v>
       </c>
       <c r="V2">
-        <v>-3.175412329677697E-09</v>
+        <v>-3.175418645613142E-09</v>
       </c>
       <c r="W2">
-        <v>5.793513778441608E-20</v>
+        <v>1.578989650994735E-14</v>
       </c>
       <c r="X2">
-        <v>-3.175413905107594E-09</v>
+        <v>-3.175409168156035E-09</v>
       </c>
       <c r="Y2">
-        <v>3.175412330094134E-09</v>
+        <v>3.17541864602958E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -11515,37 +11515,37 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.6666666666635033</v>
+        <v>0.6666666666635026</v>
       </c>
       <c r="AH2">
-        <v>0.3333333331670295</v>
+        <v>0.3333333331670308</v>
       </c>
       <c r="AI2">
-        <v>0.3333333334964809</v>
+        <v>0.3333333334964823</v>
       </c>
       <c r="AJ2">
         <v>0.6666666666909591</v>
       </c>
       <c r="AK2">
-        <v>0.333333333138604</v>
+        <v>0.3333333331386052</v>
       </c>
       <c r="AL2">
-        <v>0.3333333335523625</v>
+        <v>0.3333333335523637</v>
       </c>
       <c r="AM2">
-        <v>-3.647478582900219E-11</v>
+        <v>-3.644305932982054E-11</v>
       </c>
       <c r="AN2">
-        <v>-179.9999999981412</v>
+        <v>-179.9999999981411</v>
       </c>
       <c r="AO2">
         <v>179.9999999980558</v>
       </c>
       <c r="AP2">
-        <v>1.357958735690672E-09</v>
+        <v>1.3579892308053E-09</v>
       </c>
       <c r="AQ2">
-        <v>-179.9999999844856</v>
+        <v>-179.9999999844855</v>
       </c>
       <c r="AR2">
         <v>179.999999987189</v>
@@ -11592,40 +11592,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>8.148330405881314E-10</v>
+        <v>8.148219877011297E-10</v>
       </c>
       <c r="O3">
-        <v>2.037141815720551E-10</v>
+        <v>2.037007602092737E-10</v>
       </c>
       <c r="P3">
-        <v>2.036983919363871E-10</v>
+        <v>2.037015499041056E-10</v>
       </c>
       <c r="Q3">
-        <v>-8.148267246415159E-10</v>
+        <v>-8.14815671754514E-10</v>
       </c>
       <c r="R3">
-        <v>-2.037094445421823E-10</v>
+        <v>-2.03699181147115E-10</v>
       </c>
       <c r="S3">
-        <v>-2.036968128742304E-10</v>
+        <v>-2.036983918580895E-10</v>
       </c>
       <c r="T3">
-        <v>-1.894778036504951E-14</v>
+        <v>6.315961351566859E-15</v>
       </c>
       <c r="U3">
-        <v>-1.05849235477434E-09</v>
+        <v>-1.058481301887353E-09</v>
       </c>
       <c r="V3">
-        <v>1.058474987367939E-09</v>
+        <v>1.058481303303375E-09</v>
       </c>
       <c r="W3">
-        <v>1.57898192609352E-14</v>
+        <v>-9.47392245607176E-15</v>
       </c>
       <c r="X3">
-        <v>1.058489196852902E-09</v>
+        <v>1.058478143965914E-09</v>
       </c>
       <c r="Y3">
-        <v>-1.058481303257101E-09</v>
+        <v>-1.058481303257105E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -11646,25 +11646,25 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.6666666667001113</v>
+        <v>0.6666666667001114</v>
       </c>
       <c r="AH3">
-        <v>0.3333333331291287</v>
+        <v>0.3333333331291295</v>
       </c>
       <c r="AI3">
-        <v>0.3333333335709896</v>
+        <v>0.3333333335709906</v>
       </c>
       <c r="AJ3">
         <v>0.6666666666909591</v>
       </c>
       <c r="AK3">
-        <v>0.333333333138604</v>
+        <v>0.3333333331386052</v>
       </c>
       <c r="AL3">
-        <v>0.3333333335523625</v>
+        <v>0.3333333335523637</v>
       </c>
       <c r="AM3">
-        <v>1.822789555263585E-09</v>
+        <v>1.822774502340682E-09</v>
       </c>
       <c r="AN3">
         <v>-179.9999999799336</v>
@@ -11673,10 +11673,10 @@
         <v>179.9999999835668</v>
       </c>
       <c r="AP3">
-        <v>1.357958735690672E-09</v>
+        <v>1.3579892308053E-09</v>
       </c>
       <c r="AQ3">
-        <v>-179.9999999844856</v>
+        <v>-179.9999999844855</v>
       </c>
       <c r="AR3">
         <v>179.999999987189</v>
@@ -11723,40 +11723,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>8.148204087172729E-10</v>
+        <v>8.148219877011297E-10</v>
       </c>
       <c r="O4">
-        <v>2.037015497011994E-10</v>
+        <v>2.037007602092737E-10</v>
       </c>
       <c r="P4">
-        <v>2.037047078718159E-10</v>
+        <v>2.037015499041056E-10</v>
       </c>
       <c r="Q4">
-        <v>-8.148267246415159E-10</v>
+        <v>-8.14815671754514E-10</v>
       </c>
       <c r="R4">
-        <v>-2.037031286067536E-10</v>
+        <v>-2.03699181147115E-10</v>
       </c>
       <c r="S4">
-        <v>-2.036999708419442E-10</v>
+        <v>-2.036983918580895E-10</v>
       </c>
       <c r="T4">
-        <v>-2.210574808019317E-14</v>
+        <v>6.315961351566859E-15</v>
       </c>
       <c r="U4">
-        <v>-1.058479722903494E-09</v>
+        <v>-1.058481301887353E-09</v>
       </c>
       <c r="V4">
-        <v>1.05846235549707E-09</v>
+        <v>1.058481303303375E-09</v>
       </c>
       <c r="W4">
-        <v>1.894778697553961E-14</v>
+        <v>-9.47392245607176E-15</v>
       </c>
       <c r="X4">
-        <v>1.058476564982053E-09</v>
+        <v>1.058478143965914E-09</v>
       </c>
       <c r="Y4">
-        <v>-1.058468671386234E-09</v>
+        <v>-1.058481303257105E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -11777,37 +11777,37 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.6666666667001111</v>
+        <v>0.6666666667001114</v>
       </c>
       <c r="AH4">
-        <v>0.3333333331291286</v>
+        <v>0.3333333331291295</v>
       </c>
       <c r="AI4">
-        <v>0.3333333335709895</v>
+        <v>0.3333333335709906</v>
       </c>
       <c r="AJ4">
         <v>0.6666666666909591</v>
       </c>
       <c r="AK4">
-        <v>0.333333333138604</v>
+        <v>0.3333333331386052</v>
       </c>
       <c r="AL4">
-        <v>0.3333333335523625</v>
+        <v>0.3333333335523637</v>
       </c>
       <c r="AM4">
-        <v>1.822782942641482E-09</v>
+        <v>1.822774502340682E-09</v>
       </c>
       <c r="AN4">
-        <v>-179.9999999799337</v>
+        <v>-179.9999999799336</v>
       </c>
       <c r="AO4">
         <v>179.9999999835668</v>
       </c>
       <c r="AP4">
-        <v>1.357958735690672E-09</v>
+        <v>1.3579892308053E-09</v>
       </c>
       <c r="AQ4">
-        <v>-179.9999999844856</v>
+        <v>-179.9999999844855</v>
       </c>
       <c r="AR4">
         <v>179.999999987189</v>
@@ -12226,40 +12226,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.444432804308156E-09</v>
+        <v>-2.444453331098298E-09</v>
       </c>
       <c r="O2">
-        <v>-6.111141220671274E-10</v>
+        <v>-6.111212274944871E-10</v>
       </c>
       <c r="P2">
-        <v>-6.111078067404257E-10</v>
+        <v>-6.111078067404273E-10</v>
       </c>
       <c r="Q2">
-        <v>2.444432804408827E-09</v>
+        <v>2.444453331198972E-09</v>
       </c>
       <c r="R2">
-        <v>6.111157017556817E-10</v>
+        <v>6.111196492153267E-10</v>
       </c>
       <c r="S2">
-        <v>6.111093864289837E-10</v>
+        <v>6.111078074451291E-10</v>
       </c>
       <c r="T2">
-        <v>-3.157966158335943E-15</v>
+        <v>-1.894780473204817E-14</v>
       </c>
       <c r="U2">
-        <v>3.175407589588605E-09</v>
+        <v>3.175406010604761E-09</v>
       </c>
       <c r="V2">
-        <v>-3.175412329677697E-09</v>
+        <v>-3.175418645613142E-09</v>
       </c>
       <c r="W2">
-        <v>5.793513778441608E-20</v>
+        <v>1.578989650994735E-14</v>
       </c>
       <c r="X2">
-        <v>-3.175413905107594E-09</v>
+        <v>-3.175409168156035E-09</v>
       </c>
       <c r="Y2">
-        <v>3.175412330094134E-09</v>
+        <v>3.17541864602958E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -12280,37 +12280,37 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.6666666666635033</v>
+        <v>0.6666666666635026</v>
       </c>
       <c r="AH2">
-        <v>0.3333333331670295</v>
+        <v>0.3333333331670308</v>
       </c>
       <c r="AI2">
-        <v>0.3333333334964809</v>
+        <v>0.3333333334964823</v>
       </c>
       <c r="AJ2">
         <v>0.6666666666909591</v>
       </c>
       <c r="AK2">
-        <v>0.333333333138604</v>
+        <v>0.3333333331386052</v>
       </c>
       <c r="AL2">
-        <v>0.3333333335523625</v>
+        <v>0.3333333335523637</v>
       </c>
       <c r="AM2">
-        <v>-3.647478582900219E-11</v>
+        <v>-3.644305932982054E-11</v>
       </c>
       <c r="AN2">
-        <v>-179.9999999981412</v>
+        <v>-179.9999999981411</v>
       </c>
       <c r="AO2">
         <v>179.9999999980558</v>
       </c>
       <c r="AP2">
-        <v>1.357958735690672E-09</v>
+        <v>1.3579892308053E-09</v>
       </c>
       <c r="AQ2">
-        <v>-179.9999999844856</v>
+        <v>-179.9999999844855</v>
       </c>
       <c r="AR2">
         <v>179.999999987189</v>
@@ -12357,40 +12357,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>8.148330405881314E-10</v>
+        <v>8.148219877011297E-10</v>
       </c>
       <c r="O3">
-        <v>2.037141815720551E-10</v>
+        <v>2.037007602092737E-10</v>
       </c>
       <c r="P3">
-        <v>2.036983919363871E-10</v>
+        <v>2.037015499041056E-10</v>
       </c>
       <c r="Q3">
-        <v>-8.148267246415159E-10</v>
+        <v>-8.14815671754514E-10</v>
       </c>
       <c r="R3">
-        <v>-2.037094445421823E-10</v>
+        <v>-2.03699181147115E-10</v>
       </c>
       <c r="S3">
-        <v>-2.036968128742304E-10</v>
+        <v>-2.036983918580895E-10</v>
       </c>
       <c r="T3">
-        <v>-1.894778036504951E-14</v>
+        <v>6.315961351566859E-15</v>
       </c>
       <c r="U3">
-        <v>-1.05849235477434E-09</v>
+        <v>-1.058481301887353E-09</v>
       </c>
       <c r="V3">
-        <v>1.058474987367939E-09</v>
+        <v>1.058481303303375E-09</v>
       </c>
       <c r="W3">
-        <v>1.57898192609352E-14</v>
+        <v>-9.47392245607176E-15</v>
       </c>
       <c r="X3">
-        <v>1.058489196852902E-09</v>
+        <v>1.058478143965914E-09</v>
       </c>
       <c r="Y3">
-        <v>-1.058481303257101E-09</v>
+        <v>-1.058481303257105E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -12411,25 +12411,25 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.6666666667001113</v>
+        <v>0.6666666667001114</v>
       </c>
       <c r="AH3">
-        <v>0.3333333331291287</v>
+        <v>0.3333333331291295</v>
       </c>
       <c r="AI3">
-        <v>0.3333333335709896</v>
+        <v>0.3333333335709906</v>
       </c>
       <c r="AJ3">
         <v>0.6666666666909591</v>
       </c>
       <c r="AK3">
-        <v>0.333333333138604</v>
+        <v>0.3333333331386052</v>
       </c>
       <c r="AL3">
-        <v>0.3333333335523625</v>
+        <v>0.3333333335523637</v>
       </c>
       <c r="AM3">
-        <v>1.822789555263585E-09</v>
+        <v>1.822774502340682E-09</v>
       </c>
       <c r="AN3">
         <v>-179.9999999799336</v>
@@ -12438,10 +12438,10 @@
         <v>179.9999999835668</v>
       </c>
       <c r="AP3">
-        <v>1.357958735690672E-09</v>
+        <v>1.3579892308053E-09</v>
       </c>
       <c r="AQ3">
-        <v>-179.9999999844856</v>
+        <v>-179.9999999844855</v>
       </c>
       <c r="AR3">
         <v>179.999999987189</v>
@@ -12488,40 +12488,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>8.148204087172729E-10</v>
+        <v>8.148219877011297E-10</v>
       </c>
       <c r="O4">
-        <v>2.037015497011994E-10</v>
+        <v>2.037007602092737E-10</v>
       </c>
       <c r="P4">
-        <v>2.037047078718159E-10</v>
+        <v>2.037015499041056E-10</v>
       </c>
       <c r="Q4">
-        <v>-8.148267246415159E-10</v>
+        <v>-8.14815671754514E-10</v>
       </c>
       <c r="R4">
-        <v>-2.037031286067536E-10</v>
+        <v>-2.03699181147115E-10</v>
       </c>
       <c r="S4">
-        <v>-2.036999708419442E-10</v>
+        <v>-2.036983918580895E-10</v>
       </c>
       <c r="T4">
-        <v>-2.210574808019317E-14</v>
+        <v>6.315961351566859E-15</v>
       </c>
       <c r="U4">
-        <v>-1.058479722903494E-09</v>
+        <v>-1.058481301887353E-09</v>
       </c>
       <c r="V4">
-        <v>1.05846235549707E-09</v>
+        <v>1.058481303303375E-09</v>
       </c>
       <c r="W4">
-        <v>1.894778697553961E-14</v>
+        <v>-9.47392245607176E-15</v>
       </c>
       <c r="X4">
-        <v>1.058476564982053E-09</v>
+        <v>1.058478143965914E-09</v>
       </c>
       <c r="Y4">
-        <v>-1.058468671386234E-09</v>
+        <v>-1.058481303257105E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -12542,37 +12542,37 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.6666666667001111</v>
+        <v>0.6666666667001114</v>
       </c>
       <c r="AH4">
-        <v>0.3333333331291286</v>
+        <v>0.3333333331291295</v>
       </c>
       <c r="AI4">
-        <v>0.3333333335709895</v>
+        <v>0.3333333335709906</v>
       </c>
       <c r="AJ4">
         <v>0.6666666666909591</v>
       </c>
       <c r="AK4">
-        <v>0.333333333138604</v>
+        <v>0.3333333331386052</v>
       </c>
       <c r="AL4">
-        <v>0.3333333335523625</v>
+        <v>0.3333333335523637</v>
       </c>
       <c r="AM4">
-        <v>1.822782942641482E-09</v>
+        <v>1.822774502340682E-09</v>
       </c>
       <c r="AN4">
-        <v>-179.9999999799337</v>
+        <v>-179.9999999799336</v>
       </c>
       <c r="AO4">
         <v>179.9999999835668</v>
       </c>
       <c r="AP4">
-        <v>1.357958735690672E-09</v>
+        <v>1.3579892308053E-09</v>
       </c>
       <c r="AQ4">
-        <v>-179.9999999844856</v>
+        <v>-179.9999999844855</v>
       </c>
       <c r="AR4">
         <v>179.999999987189</v>
@@ -12766,40 +12766,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-1.941662868835355E-09</v>
+        <v>-1.941677257926482E-09</v>
       </c>
       <c r="O2">
-        <v>-1.538365458783696E-09</v>
+        <v>-1.538345633398658E-09</v>
       </c>
       <c r="P2">
-        <v>-2.506375115211546E-09</v>
+        <v>-2.506376304823001E-09</v>
       </c>
       <c r="Q2">
-        <v>1.941658451956075E-09</v>
+        <v>1.941676230186093E-09</v>
       </c>
       <c r="R2">
-        <v>1.538359644995594E-09</v>
+        <v>1.538345633761485E-09</v>
       </c>
       <c r="S2">
-        <v>2.506375115574378E-09</v>
+        <v>2.506374802327306E-09</v>
       </c>
       <c r="T2">
-        <v>5.58898620578392E-10</v>
+        <v>5.588740542378309E-10</v>
       </c>
       <c r="U2">
-        <v>3.623731033729635E-09</v>
+        <v>3.623716487109246E-09</v>
       </c>
       <c r="V2">
-        <v>-8.292833431117238E-10</v>
+        <v>-8.292819968767444E-10</v>
       </c>
       <c r="W2">
-        <v>-5.588965047941477E-10</v>
+        <v>-5.588758089458115E-10</v>
       </c>
       <c r="X2">
-        <v>-3.623726314952862E-09</v>
+        <v>-3.623716486894834E-09</v>
       </c>
       <c r="Y2">
-        <v>8.292833433261376E-10</v>
+        <v>8.292782716332621E-10</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -12820,40 +12820,40 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.7679592756099295</v>
+        <v>0.767959275609929</v>
       </c>
       <c r="AH2">
-        <v>0.5655462792825746</v>
+        <v>0.5655462792825756</v>
       </c>
       <c r="AI2">
-        <v>0.3792589156706158</v>
+        <v>0.3792589156706166</v>
       </c>
       <c r="AJ2">
         <v>0.7679592756256414</v>
       </c>
       <c r="AK2">
-        <v>0.56554627927459</v>
+        <v>0.5655462792745906</v>
       </c>
       <c r="AL2">
-        <v>0.3792589157297769</v>
+        <v>0.3792589157297777</v>
       </c>
       <c r="AM2">
-        <v>-3.793471525611846</v>
+        <v>-3.793471525611829</v>
       </c>
       <c r="AN2">
-        <v>-155.6266320097133</v>
+        <v>-155.6266320097134</v>
       </c>
       <c r="AO2">
-        <v>131.4656840130514</v>
+        <v>131.4656840130516</v>
       </c>
       <c r="AP2">
-        <v>-3.793471524370565</v>
+        <v>-3.793471524370543</v>
       </c>
       <c r="AQ2">
-        <v>-155.6266320036331</v>
+        <v>-155.6266320036332</v>
       </c>
       <c r="AR2">
-        <v>131.4656840149957</v>
+        <v>131.4656840149959</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -12897,40 +12897,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>6.472167583518609E-10</v>
+        <v>6.472224437518653E-10</v>
       </c>
       <c r="O3">
-        <v>5.127859698558983E-10</v>
+        <v>5.127774291415316E-10</v>
       </c>
       <c r="P3">
-        <v>8.354619618584123E-10</v>
+        <v>8.354616486113382E-10</v>
       </c>
       <c r="Q3">
-        <v>-6.472177861383254E-10</v>
+        <v>-6.472304904927753E-10</v>
       </c>
       <c r="R3">
-        <v>-5.127846924416655E-10</v>
+        <v>-5.127800983927835E-10</v>
       </c>
       <c r="S3">
-        <v>-8.354640594823499E-10</v>
+        <v>-8.354625566238244E-10</v>
       </c>
       <c r="T3">
-        <v>-1.862895397688071E-10</v>
+        <v>-1.862862709682523E-10</v>
       </c>
       <c r="U3">
-        <v>-1.207913445361748E-09</v>
+        <v>-1.207917314815873E-09</v>
       </c>
       <c r="V3">
-        <v>2.764309534297428E-10</v>
+        <v>2.764258817368618E-10</v>
       </c>
       <c r="W3">
-        <v>1.862877850335989E-10</v>
+        <v>1.862886274019378E-10</v>
       </c>
       <c r="X3">
-        <v>1.207915494656365E-09</v>
+        <v>1.207910223314846E-09</v>
       </c>
       <c r="Y3">
-        <v>-2.764340057463182E-10</v>
+        <v>-2.764302802884269E-10</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -12951,40 +12951,40 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.7679592756308786</v>
+        <v>0.767959275630879</v>
       </c>
       <c r="AH3">
-        <v>0.5655462792719284</v>
+        <v>0.5655462792719289</v>
       </c>
       <c r="AI3">
-        <v>0.3792589157494973</v>
+        <v>0.3792589157494977</v>
       </c>
       <c r="AJ3">
         <v>0.7679592756256414</v>
       </c>
       <c r="AK3">
-        <v>0.56554627927459</v>
+        <v>0.5655462792745906</v>
       </c>
       <c r="AL3">
-        <v>0.3792589157297769</v>
+        <v>0.3792589157297777</v>
       </c>
       <c r="AM3">
-        <v>-3.793471523956812</v>
+        <v>-3.793471523956804</v>
       </c>
       <c r="AN3">
-        <v>-155.6266320016063</v>
+        <v>-155.6266320016064</v>
       </c>
       <c r="AO3">
-        <v>131.4656840156438</v>
+        <v>131.465684015644</v>
       </c>
       <c r="AP3">
-        <v>-3.793471524370565</v>
+        <v>-3.793471524370543</v>
       </c>
       <c r="AQ3">
-        <v>-155.6266320036331</v>
+        <v>-155.6266320036332</v>
       </c>
       <c r="AR3">
-        <v>131.4656840149957</v>
+        <v>131.4656840149959</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -13028,40 +13028,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>6.472199068140815E-10</v>
+        <v>6.472224437518653E-10</v>
       </c>
       <c r="O4">
-        <v>5.127742270102994E-10</v>
+        <v>5.127774291415316E-10</v>
       </c>
       <c r="P4">
-        <v>8.354550740599275E-10</v>
+        <v>8.354616486113382E-10</v>
       </c>
       <c r="Q4">
-        <v>-6.472209346005458E-10</v>
+        <v>-6.472304904927753E-10</v>
       </c>
       <c r="R4">
-        <v>-5.127776009168139E-10</v>
+        <v>-5.127800983927835E-10</v>
       </c>
       <c r="S4">
-        <v>-8.354532896024351E-10</v>
+        <v>-8.354625566238244E-10</v>
       </c>
       <c r="T4">
-        <v>-1.862970400765897E-10</v>
+        <v>-1.862862709682523E-10</v>
       </c>
       <c r="U4">
-        <v>-1.207907001220293E-09</v>
+        <v>-1.207917314815873E-09</v>
       </c>
       <c r="V4">
-        <v>2.764224695260389E-10</v>
+        <v>2.764258817368618E-10</v>
       </c>
       <c r="W4">
-        <v>1.862952853413815E-10</v>
+        <v>1.862886274019378E-10</v>
       </c>
       <c r="X4">
-        <v>1.207912825364798E-09</v>
+        <v>1.207910223314846E-09</v>
       </c>
       <c r="Y4">
-        <v>-2.764244888546993E-10</v>
+        <v>-2.764302802884269E-10</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -13082,40 +13082,40 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.7679592756308785</v>
+        <v>0.767959275630879</v>
       </c>
       <c r="AH4">
-        <v>0.5655462792719284</v>
+        <v>0.5655462792719289</v>
       </c>
       <c r="AI4">
-        <v>0.3792589157494971</v>
+        <v>0.3792589157494977</v>
       </c>
       <c r="AJ4">
         <v>0.7679592756256414</v>
       </c>
       <c r="AK4">
-        <v>0.56554627927459</v>
+        <v>0.5655462792745906</v>
       </c>
       <c r="AL4">
-        <v>0.3792589157297769</v>
+        <v>0.3792589157297777</v>
       </c>
       <c r="AM4">
-        <v>-3.793471523956809</v>
+        <v>-3.793471523956804</v>
       </c>
       <c r="AN4">
         <v>-155.6266320016064</v>
       </c>
       <c r="AO4">
-        <v>131.4656840156438</v>
+        <v>131.465684015644</v>
       </c>
       <c r="AP4">
-        <v>-3.793471524370565</v>
+        <v>-3.793471524370543</v>
       </c>
       <c r="AQ4">
-        <v>-155.6266320036331</v>
+        <v>-155.6266320036332</v>
       </c>
       <c r="AR4">
-        <v>131.4656840149957</v>
+        <v>131.4656840149959</v>
       </c>
     </row>
   </sheetData>
@@ -13306,40 +13306,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-1.941662868835355E-09</v>
+        <v>-1.941677257926482E-09</v>
       </c>
       <c r="O2">
-        <v>-1.538365458783696E-09</v>
+        <v>-1.538345633398658E-09</v>
       </c>
       <c r="P2">
-        <v>-2.506375115211546E-09</v>
+        <v>-2.506376304823001E-09</v>
       </c>
       <c r="Q2">
-        <v>1.941658451956075E-09</v>
+        <v>1.941676230186093E-09</v>
       </c>
       <c r="R2">
-        <v>1.538359644995594E-09</v>
+        <v>1.538345633761485E-09</v>
       </c>
       <c r="S2">
-        <v>2.506375115574378E-09</v>
+        <v>2.506374802327306E-09</v>
       </c>
       <c r="T2">
-        <v>5.58898620578392E-10</v>
+        <v>5.588740542378309E-10</v>
       </c>
       <c r="U2">
-        <v>3.623731033729635E-09</v>
+        <v>3.623716487109246E-09</v>
       </c>
       <c r="V2">
-        <v>-8.292833431117238E-10</v>
+        <v>-8.292819968767444E-10</v>
       </c>
       <c r="W2">
-        <v>-5.588965047941477E-10</v>
+        <v>-5.588758089458115E-10</v>
       </c>
       <c r="X2">
-        <v>-3.623726314952862E-09</v>
+        <v>-3.623716486894834E-09</v>
       </c>
       <c r="Y2">
-        <v>8.292833433261376E-10</v>
+        <v>8.292782716332621E-10</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -13360,40 +13360,40 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.7679592756099295</v>
+        <v>0.767959275609929</v>
       </c>
       <c r="AH2">
-        <v>0.5655462792825746</v>
+        <v>0.5655462792825756</v>
       </c>
       <c r="AI2">
-        <v>0.3792589156706158</v>
+        <v>0.3792589156706166</v>
       </c>
       <c r="AJ2">
         <v>0.7679592756256414</v>
       </c>
       <c r="AK2">
-        <v>0.56554627927459</v>
+        <v>0.5655462792745906</v>
       </c>
       <c r="AL2">
-        <v>0.3792589157297769</v>
+        <v>0.3792589157297777</v>
       </c>
       <c r="AM2">
-        <v>-3.793471525611846</v>
+        <v>-3.793471525611829</v>
       </c>
       <c r="AN2">
-        <v>-155.6266320097133</v>
+        <v>-155.6266320097134</v>
       </c>
       <c r="AO2">
-        <v>131.4656840130514</v>
+        <v>131.4656840130516</v>
       </c>
       <c r="AP2">
-        <v>-3.793471524370565</v>
+        <v>-3.793471524370543</v>
       </c>
       <c r="AQ2">
-        <v>-155.6266320036331</v>
+        <v>-155.6266320036332</v>
       </c>
       <c r="AR2">
-        <v>131.4656840149957</v>
+        <v>131.4656840149959</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -13437,40 +13437,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>6.472167583518609E-10</v>
+        <v>6.472224437518653E-10</v>
       </c>
       <c r="O3">
-        <v>5.127859698558983E-10</v>
+        <v>5.127774291415316E-10</v>
       </c>
       <c r="P3">
-        <v>8.354619618584123E-10</v>
+        <v>8.354616486113382E-10</v>
       </c>
       <c r="Q3">
-        <v>-6.472177861383254E-10</v>
+        <v>-6.472304904927753E-10</v>
       </c>
       <c r="R3">
-        <v>-5.127846924416655E-10</v>
+        <v>-5.127800983927835E-10</v>
       </c>
       <c r="S3">
-        <v>-8.354640594823499E-10</v>
+        <v>-8.354625566238244E-10</v>
       </c>
       <c r="T3">
-        <v>-1.862895397688071E-10</v>
+        <v>-1.862862709682523E-10</v>
       </c>
       <c r="U3">
-        <v>-1.207913445361748E-09</v>
+        <v>-1.207917314815873E-09</v>
       </c>
       <c r="V3">
-        <v>2.764309534297428E-10</v>
+        <v>2.764258817368618E-10</v>
       </c>
       <c r="W3">
-        <v>1.862877850335989E-10</v>
+        <v>1.862886274019378E-10</v>
       </c>
       <c r="X3">
-        <v>1.207915494656365E-09</v>
+        <v>1.207910223314846E-09</v>
       </c>
       <c r="Y3">
-        <v>-2.764340057463182E-10</v>
+        <v>-2.764302802884269E-10</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -13491,40 +13491,40 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.7679592756308786</v>
+        <v>0.767959275630879</v>
       </c>
       <c r="AH3">
-        <v>0.5655462792719284</v>
+        <v>0.5655462792719289</v>
       </c>
       <c r="AI3">
-        <v>0.3792589157494973</v>
+        <v>0.3792589157494977</v>
       </c>
       <c r="AJ3">
         <v>0.7679592756256414</v>
       </c>
       <c r="AK3">
-        <v>0.56554627927459</v>
+        <v>0.5655462792745906</v>
       </c>
       <c r="AL3">
-        <v>0.3792589157297769</v>
+        <v>0.3792589157297777</v>
       </c>
       <c r="AM3">
-        <v>-3.793471523956812</v>
+        <v>-3.793471523956804</v>
       </c>
       <c r="AN3">
-        <v>-155.6266320016063</v>
+        <v>-155.6266320016064</v>
       </c>
       <c r="AO3">
-        <v>131.4656840156438</v>
+        <v>131.465684015644</v>
       </c>
       <c r="AP3">
-        <v>-3.793471524370565</v>
+        <v>-3.793471524370543</v>
       </c>
       <c r="AQ3">
-        <v>-155.6266320036331</v>
+        <v>-155.6266320036332</v>
       </c>
       <c r="AR3">
-        <v>131.4656840149957</v>
+        <v>131.4656840149959</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -13568,40 +13568,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>6.472199068140815E-10</v>
+        <v>6.472224437518653E-10</v>
       </c>
       <c r="O4">
-        <v>5.127742270102994E-10</v>
+        <v>5.127774291415316E-10</v>
       </c>
       <c r="P4">
-        <v>8.354550740599275E-10</v>
+        <v>8.354616486113382E-10</v>
       </c>
       <c r="Q4">
-        <v>-6.472209346005458E-10</v>
+        <v>-6.472304904927753E-10</v>
       </c>
       <c r="R4">
-        <v>-5.127776009168139E-10</v>
+        <v>-5.127800983927835E-10</v>
       </c>
       <c r="S4">
-        <v>-8.354532896024351E-10</v>
+        <v>-8.354625566238244E-10</v>
       </c>
       <c r="T4">
-        <v>-1.862970400765897E-10</v>
+        <v>-1.862862709682523E-10</v>
       </c>
       <c r="U4">
-        <v>-1.207907001220293E-09</v>
+        <v>-1.207917314815873E-09</v>
       </c>
       <c r="V4">
-        <v>2.764224695260389E-10</v>
+        <v>2.764258817368618E-10</v>
       </c>
       <c r="W4">
-        <v>1.862952853413815E-10</v>
+        <v>1.862886274019378E-10</v>
       </c>
       <c r="X4">
-        <v>1.207912825364798E-09</v>
+        <v>1.207910223314846E-09</v>
       </c>
       <c r="Y4">
-        <v>-2.764244888546993E-10</v>
+        <v>-2.764302802884269E-10</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -13622,40 +13622,40 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.7679592756308785</v>
+        <v>0.767959275630879</v>
       </c>
       <c r="AH4">
-        <v>0.5655462792719284</v>
+        <v>0.5655462792719289</v>
       </c>
       <c r="AI4">
-        <v>0.3792589157494971</v>
+        <v>0.3792589157494977</v>
       </c>
       <c r="AJ4">
         <v>0.7679592756256414</v>
       </c>
       <c r="AK4">
-        <v>0.56554627927459</v>
+        <v>0.5655462792745906</v>
       </c>
       <c r="AL4">
-        <v>0.3792589157297769</v>
+        <v>0.3792589157297777</v>
       </c>
       <c r="AM4">
-        <v>-3.793471523956809</v>
+        <v>-3.793471523956804</v>
       </c>
       <c r="AN4">
         <v>-155.6266320016064</v>
       </c>
       <c r="AO4">
-        <v>131.4656840156438</v>
+        <v>131.465684015644</v>
       </c>
       <c r="AP4">
-        <v>-3.793471524370565</v>
+        <v>-3.793471524370543</v>
       </c>
       <c r="AQ4">
-        <v>-155.6266320036331</v>
+        <v>-155.6266320036332</v>
       </c>
       <c r="AR4">
-        <v>131.4656840149957</v>
+        <v>131.4656840149959</v>
       </c>
     </row>
   </sheetData>
@@ -14968,40 +14968,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-1.563194052506537E-14</v>
+        <v>-5.210646841688686E-15</v>
       </c>
       <c r="O2">
-        <v>1.042124982428609E-14</v>
+        <v>-3.386924832097026E-14</v>
       </c>
       <c r="P2">
-        <v>-4.453701581637349E-20</v>
+        <v>2.605318967505856E-14</v>
       </c>
       <c r="Q2">
-        <v>5.210646841688501E-15</v>
+        <v>-5.210646841687987E-15</v>
       </c>
       <c r="R2">
-        <v>2.605795522812271E-15</v>
+        <v>4.168564682832346E-14</v>
       </c>
       <c r="S2">
-        <v>4.727894349048249E-19</v>
+        <v>-4.168470195577977E-14</v>
       </c>
       <c r="T2">
-        <v>2.08425873667533E-14</v>
+        <v>2.60532342084418E-14</v>
       </c>
       <c r="U2">
-        <v>5.763410493837118E-09</v>
+        <v>5.763400072543439E-09</v>
       </c>
       <c r="V2">
-        <v>-5.763402682029841E-09</v>
+        <v>-5.763397471382986E-09</v>
       </c>
       <c r="W2">
-        <v>-1.042129368337668E-14</v>
+        <v>-3.126388105013029E-14</v>
       </c>
       <c r="X2">
-        <v>-5.763394861410699E-09</v>
+        <v>-5.763392256087281E-09</v>
       </c>
       <c r="Y2">
-        <v>5.763407893162584E-09</v>
+        <v>5.763392261222042E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -15025,34 +15025,34 @@
         <v>1.100000023808766</v>
       </c>
       <c r="AG2">
-        <v>0.5500000117057459</v>
+        <v>0.5500000117057461</v>
       </c>
       <c r="AH2">
-        <v>0.5500000121030184</v>
+        <v>0.5500000121030173</v>
       </c>
       <c r="AI2">
         <v>1.100000023808766</v>
       </c>
       <c r="AJ2">
-        <v>0.5500000116593765</v>
+        <v>0.5500000116593771</v>
       </c>
       <c r="AK2">
-        <v>0.5500000121493875</v>
+        <v>0.5500000121493862</v>
       </c>
       <c r="AL2">
-        <v>6.92343595716384E-13</v>
+        <v>6.912154852316506E-13</v>
       </c>
       <c r="AM2">
-        <v>-179.9999999995567</v>
+        <v>-179.9999999995566</v>
       </c>
       <c r="AN2">
         <v>179.9999999995499</v>
       </c>
       <c r="AO2">
-        <v>7.082758124159204E-13</v>
+        <v>7.06028871780549E-13</v>
       </c>
       <c r="AP2">
-        <v>-179.9999999952994</v>
+        <v>-179.9999999952993</v>
       </c>
       <c r="AQ2">
         <v>179.9999999952925</v>
@@ -15099,40 +15099,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.04212936833772E-14</v>
+        <v>3.270476197627079E-28</v>
       </c>
       <c r="O3">
-        <v>2.049494803798653E-19</v>
+        <v>1.823746889024328E-14</v>
       </c>
       <c r="P3">
-        <v>4.168537993086173E-14</v>
+        <v>-5.210441662107425E-15</v>
       </c>
       <c r="Q3">
-        <v>-1.56319405250657E-14</v>
+        <v>-1.042129368337694E-14</v>
       </c>
       <c r="R3">
-        <v>1.302645973070846E-14</v>
+        <v>-1.04214510492939E-14</v>
       </c>
       <c r="S3">
-        <v>-5.210662603514871E-14</v>
+        <v>-1.042145128706942E-14</v>
       </c>
       <c r="T3">
-        <v>-3.647452789181846E-14</v>
+        <v>-2.605323420844185E-14</v>
       </c>
       <c r="U3">
         <v>-1.921126409769406E-09</v>
       </c>
       <c r="V3">
-        <v>1.921123806265545E-09</v>
+        <v>1.921129016912388E-09</v>
       </c>
       <c r="W3">
-        <v>4.689582157519516E-14</v>
+        <v>1.563194052506499E-14</v>
       </c>
       <c r="X3">
-        <v>1.921131620470234E-09</v>
+        <v>1.921123804499975E-09</v>
       </c>
       <c r="Y3">
-        <v>-1.92111859556471E-09</v>
+        <v>-1.921134227505241E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -15156,34 +15156,34 @@
         <v>1.100000023808765</v>
       </c>
       <c r="AG3">
-        <v>0.5500000116439205</v>
+        <v>0.5500000116439211</v>
       </c>
       <c r="AH3">
-        <v>0.5500000121648446</v>
+        <v>0.5500000121648428</v>
       </c>
       <c r="AI3">
         <v>1.100000023808766</v>
       </c>
       <c r="AJ3">
-        <v>0.5500000116593765</v>
+        <v>0.5500000116593771</v>
       </c>
       <c r="AK3">
-        <v>0.5500000121493875</v>
+        <v>0.5500000121493862</v>
       </c>
       <c r="AL3">
-        <v>7.251392252311684E-13</v>
+        <v>7.192369347422537E-13</v>
       </c>
       <c r="AM3">
-        <v>-179.9999999938803</v>
+        <v>-179.9999999938802</v>
       </c>
       <c r="AN3">
-        <v>179.9999999938735</v>
+        <v>179.9999999938734</v>
       </c>
       <c r="AO3">
-        <v>7.082758124159204E-13</v>
+        <v>7.06028871780549E-13</v>
       </c>
       <c r="AP3">
-        <v>-179.9999999952994</v>
+        <v>-179.9999999952993</v>
       </c>
       <c r="AQ3">
         <v>179.9999999952925</v>
@@ -15230,40 +15230,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>-2.605323420844159E-14</v>
+        <v>3.270476197627079E-28</v>
       </c>
       <c r="O4">
-        <v>2.049494803798653E-19</v>
+        <v>1.823746889024328E-14</v>
       </c>
       <c r="P4">
-        <v>2.084279255501348E-14</v>
+        <v>-5.210441662107425E-15</v>
       </c>
       <c r="Q4">
-        <v>1.56319405250648E-14</v>
+        <v>-1.042129368337694E-14</v>
       </c>
       <c r="R4">
-        <v>2.605166051974046E-15</v>
+        <v>-1.04214510492939E-14</v>
       </c>
       <c r="S4">
-        <v>-2.084274497194647E-14</v>
+        <v>-1.042145128706942E-14</v>
       </c>
       <c r="T4">
-        <v>-2.08425873667538E-14</v>
+        <v>-2.605323420844185E-14</v>
       </c>
       <c r="U4">
-        <v>-1.921126409769407E-09</v>
+        <v>-1.921126409769406E-09</v>
       </c>
       <c r="V4">
-        <v>1.921123806265547E-09</v>
+        <v>1.921129016912388E-09</v>
       </c>
       <c r="W4">
-        <v>2.605323420844206E-14</v>
+        <v>1.563194052506499E-14</v>
       </c>
       <c r="X4">
-        <v>1.921131620470233E-09</v>
+        <v>1.921123804499975E-09</v>
       </c>
       <c r="Y4">
-        <v>-1.921129016858401E-09</v>
+        <v>-1.921134227505241E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -15287,34 +15287,34 @@
         <v>1.100000023808765</v>
       </c>
       <c r="AG4">
-        <v>0.5500000116439206</v>
+        <v>0.5500000116439211</v>
       </c>
       <c r="AH4">
-        <v>0.5500000121648444</v>
+        <v>0.5500000121648428</v>
       </c>
       <c r="AI4">
         <v>1.100000023808766</v>
       </c>
       <c r="AJ4">
-        <v>0.5500000116593765</v>
+        <v>0.5500000116593771</v>
       </c>
       <c r="AK4">
-        <v>0.5500000121493875</v>
+        <v>0.5500000121493862</v>
       </c>
       <c r="AL4">
-        <v>7.138106372806309E-13</v>
+        <v>7.192369347422537E-13</v>
       </c>
       <c r="AM4">
-        <v>-179.9999999938803</v>
+        <v>-179.9999999938802</v>
       </c>
       <c r="AN4">
         <v>179.9999999938734</v>
       </c>
       <c r="AO4">
-        <v>7.082758124159204E-13</v>
+        <v>7.06028871780549E-13</v>
       </c>
       <c r="AP4">
-        <v>-179.9999999952994</v>
+        <v>-179.9999999952993</v>
       </c>
       <c r="AQ4">
         <v>179.9999999952925</v>
